--- a/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C40018A-7714-4880-9288-640D88C4E86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B5BA39-971D-4B01-A889-898F484B15A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="인게임 데이터정의" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="423">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>compensation_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,14 +497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>국가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저(캐릭터)번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,1042 +553,1169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>weather_info_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용가능한 진주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 피로도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature_info_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화되는 일정시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍량 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍량에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind_info_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 풍량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 풍량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화되는 폭 +-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 코드(채비 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_fish_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_item_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급 정의에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">grade_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 부품 획득에 대한 기획테이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등장확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 출몰 물고기에 대한 기획테이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급/가치 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fish_grade_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 시간(거리에 비례)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당? 차감 피로도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per_fiatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 가치 (가치는 물고기의 크기와 회귀도를 계산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water_splash_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물돌이 시간 (일주일 간격으로 물때 계산?...좀더 생각해보기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fishing_rod_grade_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 추 부하g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 추 부하g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_item_info_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 아이템 정의에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급(가치)에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시대 등급에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 줄 등급에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fishing_needle_grade_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fishing_line_grade_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 바늘 등급에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fishing_bait_grade_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 미끼 등급에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 물고기 등장 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 채비 릴 등급에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴 권사량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_reel_grade_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_grade_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 최소가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 최대가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_item_function_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fishing_item_upgrade_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrad_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 성공 확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드별 기능 상승, 증가 확률 (1강, 2강, 3강 각각 확률 다름?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ship_item_upgrade_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비, 낚시배 수리에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템코드 (배 코드, 아이템 등급코드 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 금액 (물고기 정보의 최소 ~ 최대 값 사이정도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 등급 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 업그레이드 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 정의에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hive_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hive코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">money_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_code</t>
+  </si>
+  <si>
+    <t>money_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_pearl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도(레벨업하면 리셋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 게임 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 계정 게임 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 재화 획득에 대한 히스코리 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_login_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 로그인일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저(캐릭터)코드</t>
+  </si>
+  <si>
+    <t>유저(캐릭터)코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화사용코드(상품코드, 업그레이드코드 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전타입(보상, 상점구매 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화사용코드타입(상품코드, 업그레이드코드 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전-사용 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_use_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화사용코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화충전코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정타입(hive, 구글, 게스트 등등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_inventory_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 중인 인벤토리 칸 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(물고기, 채비 부품, 배 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 코드(물고기코드, 채비 부품 등급코드, 배 코드 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 코드 or 물고기 등급코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인베토리에 대한 게임 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함(우편함)에 대한 게임 기획데이터 테이블 / 일정기간 지나면 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(재화, 채비 부품 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 코드(재화코드, 채비 부품 등급코드 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 확인 상태 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish_dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_fish_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 출몰하는 물고기 종류 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터별 잡은 물고기 히스토리 게임 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch_fish_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_fish_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡은물고기코드 (auto increment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 물고기 코드 (auto increment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_item_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 아이템 코드 (auto increment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_save_ship_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 저장할 수 있는 배 설정 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_save_item_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 저장할 수 있는 채비 설정 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choice_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 채비들 저장 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_rod_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_line_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_needle_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_bait_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_reel_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 릴 코드 (inventory_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 미끼 코드 (inventory_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 바늘 코드 (inventory_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시줄 코드 (inventory_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시대 코드 (inventory_code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_item_code1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_item_code2</t>
+  </si>
+  <si>
+    <t>fishing_item_code3</t>
+  </si>
+  <si>
+    <t>fishing_item_code4</t>
+  </si>
+  <si>
+    <t>기타 아이템 코드 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 아이템 코드 2</t>
+  </si>
+  <si>
+    <t>기타 아이템 코드 3</t>
+  </si>
+  <si>
+    <t>기타 아이템 코드 4</t>
+  </si>
+  <si>
+    <t>캐릭터별 채비 선택 데이터 테이블 // 좀더 생각 해보자…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인베토리에 있는 아이템에 대한 업그레이드 히스토리 게임 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트성 세일 퍼센트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction_ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 구매 내역에 대한 게임 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 판매 금액에 대한 주단위 랭킹 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주일 날짜 (2022-01-26, 7일간격?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적 판매금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction_rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주단위 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_nicknm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 닉네임(김압둘씨 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_tide_time1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만조시간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간조시간1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_tide_time1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_tide_time2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low_tide_time2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만조시간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간조시간2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_size_probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 크기 확률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather_history_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜별 날씨 히스토리 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_info_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_tide_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_wave_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 조수간만차 코드 (auto increment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 조수간만차에 대한 기획테이터 테이블, 일주일 기준으로 반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배에 대한 기획데이터 테이블 (배를 사는 건, 구현하고 시간 있을때, 기획서 이외의 상황임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배 업그레이드에 대한 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 (물고기는 신선도 3일이라서 3을 넣으면 되는데 매일 업데이트 될수 있음… 분리할지는 고민 나중에라도 과감히 분리해야한다면 해야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_weather_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_tide_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tide_sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조수간만차 순서 (1주일마다 반복)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터별 낚시배 선택 데이터 테이블 / 배는 보로롱24호로 고정 / 배에대한 각 유저들의 업그레이드 상태를 위한 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입 (낚시대의 경질대, 연질대?에 대한 구분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 추 부하g (삭제할지는 고민)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_choice_ship -&gt; user_ship_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_charge_history -&gt; log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_catch_fish_history -&gt; log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_use_history -&gt; log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_charge_use_history -&gt; log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction_history -&gt; log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_upgrade_history -&gt; log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터별 획득한 지역별 어류도감 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추의 무게 (아이템이 추의 추가는 좀더 고려)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템등급코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fish_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">function_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">item_repair_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">auction_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">compensation_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">quest_compensation_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트에 대한 보상 매핑 기획데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">quest_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user_level_info_data </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 날씨에 대한 데이터 테이블 (전날의 조수간만차 코드를 알기 위해 필요, 1몰-2몰-3몰-4몰 등등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_choice_item_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_inventory_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_gitf_box_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(낚시대, 낚시줄, 릴 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_info_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">ship_info_data </t>
-  </si>
-  <si>
-    <t>weather_info_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_experience</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용가능한 진주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 피로도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_fatigue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fatigue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature_info_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온도 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변화되는 일정시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온도에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wind_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍량 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풍량에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wind_info_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 풍량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 풍량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변화되는 폭 +-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 코드(채비 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_fish_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_item_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급 정의에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">grade_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 부품 획득에 대한 기획테이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등장확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 출몰 물고기에 대한 기획테이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급/가치 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fish_grade_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 가치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출항 시간(거리에 비례)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분당? 차감 피로도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>departure_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출항 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>departure_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per_fiatigue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 가치 (가치는 물고기의 크기와 회귀도를 계산)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water_splash_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물돌이 시간 (일주일 간격으로 물때 계산?...좀더 생각해보기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fishing_rod_grade_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 추 부하g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 추 부하g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_item_info_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채비 아이템 정의에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급(가치)에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시대 등급에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 줄 등급에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fishing_needle_grade_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fishing_line_grade_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 바늘 등급에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fishing_bait_grade_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 미끼 등급에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 물고기 등장 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 채비 릴 등급에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>릴 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>릴 권사량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_reel_grade_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_grade_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 최소가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 최대가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_item_function_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fishing_item_upgrade_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrad_probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 성공 확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드별 기능 상승, 증가 확률 (1강, 2강, 3강 각각 확률 다름?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ship_item_upgrade_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시배 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채비, 낚시배 수리에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템코드 (배 코드, 아이템 등급코드 사용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 금액 (물고기 정보의 최소 ~ 최대 값 사이정도)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>compensation_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 등급 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 업그레이드 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화 정의에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상재화코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hive_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hive코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">money_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_nm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_code</t>
-  </si>
-  <si>
-    <t>money_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_pearl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도(레벨업하면 리셋)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 게임 데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 계정 게임 데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 재화 획득에 대한 히스코리 데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 로그인일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저(캐릭터)코드</t>
-  </si>
-  <si>
-    <t>유저(캐릭터)코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화사용코드(상품코드, 업그레이드코드 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전타입(보상, 상점구매 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화사용코드타입(상품코드, 업그레이드코드 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전-사용 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge_use_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화사용코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화충전코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정타입(hive, 구글, 게스트 등등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_inventory_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 중인 인벤토리 칸 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입(물고기, 채비 부품, 배 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 코드(물고기코드, 채비 부품 등급코드, 배 코드 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 코드 or 물고기 등급코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인베토리에 대한 게임 데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물함(우편함)에 대한 게임 기획데이터 테이블 / 일정기간 지나면 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물함 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입(재화, 채비 부품 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 코드(재화코드, 채비 부품 등급코드 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>read_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물 확인 상태 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_fish_dictionary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_fish_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 출몰하는 물고기 종류 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터별 잡은 물고기 히스토리 게임 데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catch_fish_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_fish_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡은물고기코드 (auto increment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 물고기 코드 (auto increment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_item_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 아이템 코드 (auto increment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_save_ship_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 저장할 수 있는 배 설정 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_save_item_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저가 저장할 수 있는 채비 설정 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choice_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 채비들 저장 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_rod_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_line_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_needle_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_bait_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_reel_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 릴 코드 (inventory_code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 미끼 코드 (inventory_code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 바늘 코드 (inventory_code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시줄 코드 (inventory_code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시대 코드 (inventory_code)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_item_code1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishing_item_code2</t>
-  </si>
-  <si>
-    <t>fishing_item_code3</t>
-  </si>
-  <si>
-    <t>fishing_item_code4</t>
-  </si>
-  <si>
-    <t>기타 아이템 코드 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 아이템 코드 2</t>
-  </si>
-  <si>
-    <t>기타 아이템 코드 3</t>
-  </si>
-  <si>
-    <t>기타 아이템 코드 4</t>
-  </si>
-  <si>
-    <t>캐릭터별 채비 선택 데이터 테이블 // 좀더 생각 해보자…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인베토리에 있는 아이템에 대한 업그레이드 히스토리 게임 데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale_percent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트성 세일 퍼센트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction_ranking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 구매 내역에 대한 게임 데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 판매 금액에 대한 주단위 랭킹 데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>week_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주일 날짜 (2022-01-26, 7일간격?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적 판매금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주단위 랭킹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_nicknm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 닉네임(김압둘씨 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>high_tide_time1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만조시간1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간조시간1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low_tide_time1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>high_tide_time2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low_tide_time2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만조시간2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간조시간2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_size_probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 크기 확률 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weather_history_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜별 날씨 히스토리 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tide_info_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_tide_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_wave_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 조수간만차 코드 (auto increment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 조수간만차에 대한 기획테이터 테이블, 일주일 기준으로 반복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시배에 대한 기획데이터 테이블 (배를 사는 건, 구현하고 시간 있을때, 기획서 이외의 상황임)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시배 업그레이드에 대한 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_durability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도 (물고기는 신선도 3일이라서 3을 넣으면 되는데 매일 업데이트 될수 있음… 분리할지는 고민 나중에라도 과감히 분리해야한다면 해야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_weather_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tide_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map_tide_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tide_sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조수간만차 순서 (1주일마다 반복)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시배코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터별 낚시배 선택 데이터 테이블 / 배는 보로롱24호로 고정 / 배에대한 각 유저들의 업그레이드 상태를 위한 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입 (낚시대의 경질대, 연질대?에 대한 구분)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 추 부하g (삭제할지는 고민)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_choice_ship -&gt; user_ship_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_charge_history -&gt; log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_catch_fish_history -&gt; log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_use_history -&gt; log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money_charge_use_history -&gt; log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction_history -&gt; log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory_upgrade_history -&gt; log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터별 획득한 지역별 어류도감 데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추의 무게 (아이템이 추의 추가는 좀더 고려)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템등급코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fish_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">function_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">item_repair_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">auction_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">compensation_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">quest_compensation_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트에 대한 보상 매핑 기획데이터 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">quest_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">user_level_info_data </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_country</t>
-  </si>
-  <si>
-    <t>account_language</t>
-  </si>
-  <si>
-    <t>회원별 날씨에 대한 데이터 테이블 (전날의 조수간만차 코드를 알기 위해 필요, 1몰-2몰-3몰-4몰 등등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_choice_item_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_inventory_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_gitf_box_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입(낚시대, 낚시줄, 릴 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repair_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수리코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상아이템코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상아이템타입(골드, 진주, 바늘, 미끼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상(금액, 개수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensation_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 등급 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_grade_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 부품 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드에 필요한 부품에 대한 기획 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 시 필요한 부품 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_info_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가에 대한 기획 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_info_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어에 대한 기획 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(채비 등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1694,7 +1808,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1750,9 +1864,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2070,16 +2193,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H202" sqref="H202"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="7" width="4.625" customWidth="1"/>
     <col min="8" max="8" width="86.25" customWidth="1"/>
@@ -2100,7 +2223,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -2114,7 +2237,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2145,7 +2268,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -2154,12 +2277,12 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -2168,7 +2291,7 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2176,7 +2299,7 @@
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -2189,7 +2312,7 @@
     <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2198,12 +2321,12 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
@@ -2215,7 +2338,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2248,7 +2371,7 @@
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>24</v>
@@ -2257,12 +2380,12 @@
         <v>30</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>24</v>
@@ -2271,7 +2394,7 @@
         <v>30</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2279,7 +2402,7 @@
         <v>83</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>30</v>
@@ -2291,7 +2414,7 @@
     <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2300,12 +2423,12 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>24</v>
@@ -2317,7 +2440,7 @@
         <v>27</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2331,7 +2454,7 @@
         <v>30</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2345,12 +2468,12 @@
         <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>24</v>
@@ -2359,7 +2482,7 @@
         <v>30</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2367,7 +2490,7 @@
         <v>83</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>30</v>
@@ -2378,7 +2501,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2392,7 +2515,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -2409,63 +2532,63 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>421</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>335</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
+        <v>327</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>421</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>24</v>
+        <v>328</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>421</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>24</v>
+        <v>329</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>421</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>24</v>
@@ -2474,7 +2597,7 @@
         <v>30</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2482,7 +2605,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -2496,7 +2619,7 @@
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -2507,7 +2630,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2597,7 +2720,7 @@
     </row>
     <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>24</v>
@@ -2606,12 +2729,12 @@
         <v>30</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>24</v>
@@ -2620,12 +2743,12 @@
         <v>30</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>24</v>
@@ -2634,12 +2757,12 @@
         <v>30</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>24</v>
@@ -2648,12 +2771,12 @@
         <v>30</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>24</v>
@@ -2662,21 +2785,21 @@
         <v>30</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2684,7 +2807,7 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -2696,7 +2819,7 @@
     <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2705,12 +2828,12 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>24</v>
@@ -2722,7 +2845,7 @@
         <v>27</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2744,7 +2867,7 @@
     </row>
     <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>24</v>
@@ -2758,7 +2881,7 @@
     </row>
     <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>24</v>
@@ -2767,7 +2890,7 @@
         <v>30</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2775,7 +2898,7 @@
         <v>83</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>30</v>
@@ -2787,7 +2910,7 @@
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2796,12 +2919,12 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>24</v>
@@ -2813,7 +2936,7 @@
         <v>27</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2849,7 +2972,7 @@
         <v>83</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>30</v>
@@ -2861,7 +2984,7 @@
     <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2870,12 +2993,12 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>24</v>
@@ -2887,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2915,168 +3038,168 @@
         <v>30</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" s="4" t="s">
+      <c r="C67" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="4">
-        <v>100</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="4">
+        <v>100</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" s="4" t="s">
+      <c r="C72" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="3" t="s">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="4">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
       </c>
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
       <c r="H75" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" t="s">
-        <v>24</v>
+        <v>69</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="4">
+        <v>100</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
@@ -3085,12 +3208,12 @@
         <v>30</v>
       </c>
       <c r="H77" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
         <v>24</v>
@@ -3099,40 +3222,40 @@
         <v>30</v>
       </c>
       <c r="H78" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>50</v>
       </c>
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>24</v>
@@ -3141,40 +3264,40 @@
         <v>30</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" t="s">
-        <v>41</v>
+      <c r="C83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
         <v>24</v>
@@ -3182,271 +3305,271 @@
       <c r="E84" t="s">
         <v>30</v>
       </c>
-      <c r="G84">
-        <v>3</v>
-      </c>
       <c r="H84" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>83</v>
       </c>
-      <c r="C85" t="s">
-        <v>373</v>
-      </c>
-      <c r="E85" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="C86" t="s">
+        <v>365</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" t="s">
-        <v>30</v>
-      </c>
-      <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="A88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H89" t="s">
-        <v>170</v>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>374</v>
+      <c r="B90" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
       </c>
       <c r="H90" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>174</v>
+      <c r="B91" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C91" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
         <v>30</v>
       </c>
+      <c r="F91" s="4"/>
       <c r="H91" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>83</v>
       </c>
-      <c r="C92" t="s">
-        <v>373</v>
-      </c>
-      <c r="E92" t="s">
-        <v>30</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="C95" t="s">
+        <v>365</v>
+      </c>
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" s="4">
-        <v>100</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>371</v>
+    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="4">
+        <v>100</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H98" s="4" t="s">
+      <c r="C101" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" s="4" t="s">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H101" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>170</v>
+      <c r="H104" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>24</v>
@@ -3455,398 +3578,398 @@
         <v>30</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109" s="17" t="s">
-        <v>186</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>24</v>
+        <v>366</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>225</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H113" s="4" t="s">
+      <c r="C116" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" s="4" t="s">
+    <row r="117" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H116" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>10</v>
+      <c r="H119" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="17" t="s">
-        <v>186</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>24</v>
+        <v>366</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>225</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H127" s="4" t="s">
+      <c r="C130" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F130" s="4" t="s">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H130" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>60</v>
+      <c r="H133" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>24</v>
@@ -3855,167 +3978,163 @@
         <v>30</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>24</v>
+        <v>366</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H137" s="4" t="s">
+      <c r="C140" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H140" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="4" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H140" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4" t="s">
+      <c r="H143" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4" t="s">
+      <c r="C144" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="C145" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
       <c r="H145" s="4" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
@@ -4024,142 +4143,146 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="3" t="s">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F149" s="4" t="s">
+      <c r="C152" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H149" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>10</v>
+      <c r="H152" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="153" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>24</v>
@@ -4168,12 +4291,12 @@
         <v>30</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>24</v>
@@ -4182,210 +4305,210 @@
         <v>30</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="159" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B159" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H159" s="4" t="s">
+      <c r="C161" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H161" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="3" t="s">
+    <row r="162" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B162" t="s">
-        <v>75</v>
-      </c>
-      <c r="C162" t="s">
-        <v>24</v>
-      </c>
-      <c r="E162" t="s">
-        <v>30</v>
-      </c>
-      <c r="F162" t="s">
-        <v>27</v>
-      </c>
-      <c r="H162" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B163" t="s">
-        <v>77</v>
-      </c>
-      <c r="C163" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163">
-        <v>200</v>
-      </c>
-      <c r="E163" t="s">
-        <v>30</v>
-      </c>
-      <c r="H163" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C164" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E164" t="s">
         <v>30</v>
       </c>
+      <c r="F164" t="s">
+        <v>27</v>
+      </c>
       <c r="H164" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
+        <v>77</v>
+      </c>
+      <c r="C165" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165">
+        <v>200</v>
+      </c>
+      <c r="E165" t="s">
+        <v>30</v>
+      </c>
+      <c r="H165" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>79</v>
+      </c>
+      <c r="C166" t="s">
+        <v>366</v>
+      </c>
+      <c r="E166" t="s">
+        <v>30</v>
+      </c>
+      <c r="H166" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
         <v>83</v>
       </c>
-      <c r="C165" t="s">
-        <v>373</v>
-      </c>
-      <c r="E165" t="s">
-        <v>30</v>
-      </c>
-      <c r="H165" t="s">
+      <c r="C167" t="s">
+        <v>365</v>
+      </c>
+      <c r="E167" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="3" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B168" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C168" t="s">
-        <v>24</v>
-      </c>
-      <c r="E168" t="s">
-        <v>30</v>
-      </c>
-      <c r="F168" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B170" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" t="s">
+        <v>30</v>
+      </c>
+      <c r="F170" t="s">
         <v>27</v>
       </c>
-      <c r="H168" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B169" t="s">
+      <c r="H170" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
         <v>75</v>
       </c>
-      <c r="C169" t="s">
-        <v>24</v>
-      </c>
-      <c r="E169" t="s">
-        <v>30</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" t="s">
         <v>27</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H171" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="3" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B172" s="4" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B174" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C172" t="s">
-        <v>24</v>
-      </c>
-      <c r="E172" t="s">
-        <v>30</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="C174" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" t="s">
         <v>27</v>
       </c>
-      <c r="H172" s="4" t="s">
+      <c r="H174" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B174" t="s">
-        <v>55</v>
-      </c>
-      <c r="C174" t="s">
-        <v>24</v>
-      </c>
-      <c r="E174" t="s">
-        <v>30</v>
-      </c>
-      <c r="H174" t="s">
-        <v>392</v>
-      </c>
-    </row>
     <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="4" t="s">
-        <v>226</v>
+      <c r="B175" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>24</v>
@@ -4394,12 +4517,12 @@
         <v>30</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
@@ -4408,128 +4531,133 @@
         <v>30</v>
       </c>
       <c r="H176" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B177" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="22"/>
+      <c r="B178" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" s="22"/>
+      <c r="E178" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F178" s="8"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="22"/>
+      <c r="B179" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" s="22"/>
+      <c r="E179" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>233</v>
+      </c>
+      <c r="C180" t="s">
+        <v>24</v>
+      </c>
+      <c r="E180" t="s">
+        <v>30</v>
+      </c>
+      <c r="H180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>206</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" t="s">
+        <v>30</v>
+      </c>
+      <c r="H181" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>88</v>
+      </c>
+      <c r="C182" t="s">
+        <v>366</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H182" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183" t="s">
+        <v>365</v>
+      </c>
+      <c r="E183" t="s">
+        <v>30</v>
+      </c>
+      <c r="H183" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C177" t="s">
-        <v>24</v>
-      </c>
-      <c r="E177" t="s">
-        <v>30</v>
-      </c>
-      <c r="H177" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" t="s">
-        <v>88</v>
-      </c>
-      <c r="C178" t="s">
-        <v>374</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H178" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B179" t="s">
-        <v>83</v>
-      </c>
-      <c r="C179" t="s">
-        <v>373</v>
-      </c>
-      <c r="E179" t="s">
-        <v>30</v>
-      </c>
-      <c r="H179" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C183" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E183" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H183" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H185" s="4" t="s">
-        <v>228</v>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="186" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>24</v>
@@ -4537,170 +4665,187 @@
       <c r="E186" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F186" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H186" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>110</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="4" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="189" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B189" s="4" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="190" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B190" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H190" s="4" t="s">
+      <c r="C194" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H194" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F193" s="4" t="s">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F197" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H193" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B194" t="s">
+      <c r="H197" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
         <v>62</v>
       </c>
-      <c r="C194" t="s">
-        <v>24</v>
-      </c>
-      <c r="E194" t="s">
-        <v>30</v>
-      </c>
-      <c r="H194" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B195" t="s">
-        <v>239</v>
-      </c>
-      <c r="C195" t="s">
-        <v>24</v>
-      </c>
-      <c r="E195" t="s">
-        <v>30</v>
-      </c>
-      <c r="H195" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B196" t="s">
-        <v>379</v>
-      </c>
-      <c r="C196" t="s">
-        <v>24</v>
-      </c>
-      <c r="E196" t="s">
-        <v>30</v>
-      </c>
-      <c r="H196" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B197" t="s">
-        <v>83</v>
-      </c>
-      <c r="C197" t="s">
-        <v>373</v>
-      </c>
-      <c r="E197" t="s">
-        <v>30</v>
-      </c>
-      <c r="H197" t="s">
-        <v>84</v>
+      <c r="C198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198" t="s">
+        <v>30</v>
+      </c>
+      <c r="H198" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="3" t="s">
-        <v>73</v>
+      <c r="B199" t="s">
+        <v>232</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>91</v>
+        <v>371</v>
       </c>
       <c r="C200" t="s">
         <v>24</v>
@@ -4708,190 +4853,181 @@
       <c r="E200" t="s">
         <v>30</v>
       </c>
-      <c r="F200" t="s">
-        <v>27</v>
-      </c>
       <c r="H200" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="E201" t="s">
         <v>30</v>
       </c>
       <c r="H201" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B202" t="s">
-        <v>239</v>
-      </c>
-      <c r="C202" t="s">
-        <v>24</v>
-      </c>
-      <c r="E202" t="s">
-        <v>30</v>
-      </c>
-      <c r="H202" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B203" t="s">
-        <v>219</v>
-      </c>
-      <c r="C203" t="s">
-        <v>24</v>
-      </c>
-      <c r="E203" t="s">
-        <v>30</v>
-      </c>
-      <c r="H203" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>151</v>
+      <c r="A203" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>91</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" t="s">
+        <v>30</v>
+      </c>
+      <c r="F204" t="s">
+        <v>27</v>
+      </c>
+      <c r="H204" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C205" t="s">
-        <v>373</v>
+        <v>24</v>
       </c>
       <c r="E205" t="s">
         <v>30</v>
       </c>
       <c r="H205" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>232</v>
+      </c>
+      <c r="C206" t="s">
+        <v>24</v>
+      </c>
+      <c r="E206" t="s">
+        <v>30</v>
+      </c>
+      <c r="H206" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B208" t="s">
-        <v>97</v>
-      </c>
-      <c r="C208" t="s">
-        <v>24</v>
-      </c>
-      <c r="E208" t="s">
-        <v>30</v>
-      </c>
-      <c r="F208" t="s">
-        <v>27</v>
-      </c>
-      <c r="H208" t="s">
-        <v>95</v>
+      <c r="B207" t="s">
+        <v>215</v>
+      </c>
+      <c r="C207" t="s">
+        <v>24</v>
+      </c>
+      <c r="E207" t="s">
+        <v>30</v>
+      </c>
+      <c r="H207" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="E209" t="s">
         <v>30</v>
       </c>
       <c r="H209" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B210" t="s">
-        <v>221</v>
-      </c>
-      <c r="C210" t="s">
-        <v>24</v>
-      </c>
-      <c r="E210" t="s">
-        <v>30</v>
-      </c>
-      <c r="H210" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B211" t="s">
-        <v>83</v>
-      </c>
-      <c r="C211" t="s">
-        <v>373</v>
-      </c>
-      <c r="E211" t="s">
-        <v>30</v>
-      </c>
-      <c r="H211" t="s">
-        <v>84</v>
+      <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" t="s">
+        <v>30</v>
+      </c>
+      <c r="F212" t="s">
+        <v>27</v>
+      </c>
+      <c r="H212" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B214" t="s">
-        <v>98</v>
-      </c>
-      <c r="C214" t="s">
-        <v>24</v>
-      </c>
-      <c r="E214" t="s">
-        <v>30</v>
-      </c>
-      <c r="F214" t="s">
-        <v>27</v>
-      </c>
-      <c r="H214" t="s">
-        <v>100</v>
+      <c r="B213" t="s">
+        <v>62</v>
+      </c>
+      <c r="C213" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" t="s">
+        <v>30</v>
+      </c>
+      <c r="H213" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>104</v>
+        <v>395</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
@@ -4900,204 +5036,225 @@
         <v>30</v>
       </c>
       <c r="H215" t="s">
-        <v>101</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
+        <v>83</v>
+      </c>
+      <c r="C216" t="s">
+        <v>365</v>
+      </c>
+      <c r="E216" t="s">
+        <v>30</v>
+      </c>
+      <c r="H216" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>97</v>
+      </c>
+      <c r="C219" t="s">
+        <v>24</v>
+      </c>
+      <c r="E219" t="s">
+        <v>30</v>
+      </c>
+      <c r="F219" t="s">
+        <v>27</v>
+      </c>
+      <c r="H219" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
         <v>103</v>
       </c>
-      <c r="C216" t="s">
-        <v>24</v>
-      </c>
-      <c r="E216" t="s">
-        <v>30</v>
-      </c>
-      <c r="H216" t="s">
+      <c r="C220" t="s">
+        <v>24</v>
+      </c>
+      <c r="E220" t="s">
+        <v>30</v>
+      </c>
+      <c r="H220" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B217" t="s">
+      <c r="C221" t="s">
+        <v>24</v>
+      </c>
+      <c r="E221" t="s">
+        <v>30</v>
+      </c>
+      <c r="H221" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
         <v>83</v>
       </c>
-      <c r="C217" t="s">
-        <v>373</v>
-      </c>
-      <c r="E217" t="s">
-        <v>30</v>
-      </c>
-      <c r="H217" t="s">
+      <c r="C222" t="s">
+        <v>365</v>
+      </c>
+      <c r="E222" t="s">
+        <v>30</v>
+      </c>
+      <c r="H222" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F220" s="4" t="s">
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H220" s="4" t="s">
+      <c r="H225" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H221" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H224" s="18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="17" t="s">
+      <c r="E231" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H233" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C225" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F225" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H225" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C226" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H226" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C227" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H227" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C228" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="H228" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H231" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H232" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="234" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B234" s="4" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>24</v>
@@ -5106,64 +5263,57 @@
         <v>30</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>24</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H235" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H236" s="4" t="s">
+      <c r="H235" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="237" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
+      <c r="A237" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="238" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="3" t="s">
-        <v>229</v>
+      <c r="B238" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H238" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" s="4" t="s">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>24</v>
@@ -5171,154 +5321,453 @@
       <c r="E239" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F239" s="4" t="s">
+      <c r="H239" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="5"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F246" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H239" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C240" s="4" t="s">
+      <c r="H246" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C247" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D247" s="4">
         <v>100</v>
       </c>
-      <c r="E240" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F240" s="4"/>
-      <c r="G240" s="4"/>
-      <c r="H240" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F241" s="4"/>
-      <c r="G241" s="4"/>
-      <c r="H241" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="12"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="13"/>
-      <c r="B244" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D244" s="14"/>
-      <c r="E244" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F244" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G244" s="8"/>
-      <c r="H244" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="10"/>
-      <c r="B245" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D245" s="10"/>
-      <c r="E245" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
-      <c r="H245" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="10"/>
-      <c r="B246" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D246" s="10"/>
-      <c r="E246" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
-      <c r="H246" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="10"/>
-      <c r="B247" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D247" s="4"/>
       <c r="E247" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
-      <c r="H247" s="14" t="s">
-        <v>319</v>
+      <c r="H247" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="10"/>
-      <c r="B248" s="10" t="s">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C248" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D248" s="10"/>
-      <c r="E248" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="10" t="s">
+      <c r="C248" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+      <c r="H250" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="13"/>
+      <c r="B251" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D251" s="14"/>
+      <c r="E251" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="10"/>
+      <c r="B252" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="10"/>
+      <c r="B253" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D253" s="10"/>
+      <c r="E253" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F253" s="10"/>
+      <c r="G253" s="10"/>
+      <c r="H253" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="10"/>
+      <c r="B254" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="10"/>
+      <c r="B255" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F255" s="10"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B257" s="21"/>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="22"/>
+      <c r="B258" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D258" s="22"/>
+      <c r="E258" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G258" s="22"/>
+      <c r="H258" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="22"/>
+      <c r="B259" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D259" s="22">
+        <v>100</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F259" s="22"/>
+      <c r="G259" s="22"/>
+      <c r="H259" s="22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="10"/>
+      <c r="B260" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F260" s="10"/>
+      <c r="G260" s="10"/>
+      <c r="H260" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B262" s="21"/>
+      <c r="C262" s="21"/>
+      <c r="D262" s="21"/>
+      <c r="E262" s="21"/>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>406</v>
+      </c>
+      <c r="C263" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H263" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>408</v>
+      </c>
+      <c r="C264" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H264" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B267" s="21"/>
+      <c r="C267" s="21"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="21"/>
+      <c r="G267" s="21"/>
+      <c r="H267" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="20"/>
+      <c r="B268" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C268" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D268" s="20"/>
+      <c r="E268" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G268" s="20"/>
+      <c r="H268" s="20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="20"/>
+      <c r="B269" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C269" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D269" s="20"/>
+      <c r="E269" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F269" s="20"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F270" s="10"/>
+      <c r="G270" s="10"/>
+      <c r="H270" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5333,8 +5782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
   <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5362,7 +5811,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>18</v>
@@ -5376,7 +5825,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -5385,30 +5834,30 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>24</v>
@@ -5420,7 +5869,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -5431,50 +5880,50 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>116</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>24</v>
@@ -5486,7 +5935,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -5497,13 +5946,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>84</v>
@@ -5511,7 +5960,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -5520,13 +5969,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>24</v>
@@ -5540,7 +5989,7 @@
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -5552,7 +6001,7 @@
     <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>24</v>
@@ -5564,7 +6013,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -5576,7 +6025,7 @@
     <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>25</v>
@@ -5590,7 +6039,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -5601,78 +6050,78 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>24</v>
@@ -5684,7 +6133,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -5694,33 +6143,33 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>24</v>
@@ -5732,7 +6181,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -5747,7 +6196,7 @@
         <v>83</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
@@ -5767,7 +6216,7 @@
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -5776,7 +6225,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -5788,7 +6237,7 @@
     <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>24</v>
@@ -5802,7 +6251,7 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -5814,7 +6263,7 @@
     <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>24</v>
@@ -5826,7 +6275,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -5861,7 +6310,7 @@
     </row>
     <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
@@ -5871,7 +6320,7 @@
       </c>
       <c r="F29" s="4"/>
       <c r="H29" s="6" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -5880,7 +6329,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
@@ -5916,7 +6365,7 @@
     </row>
     <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5925,7 +6374,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -5934,36 +6383,36 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="19" t="s">
+    <row r="33" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>24</v>
@@ -5977,7 +6426,7 @@
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -6002,7 +6451,7 @@
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>24</v>
@@ -6011,7 +6460,7 @@
         <v>30</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -6041,7 +6490,7 @@
     <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>24</v>
@@ -6053,7 +6502,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -6067,7 +6516,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>84</v>
@@ -6091,7 +6540,7 @@
     </row>
     <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -6100,7 +6549,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -6112,7 +6561,7 @@
     <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>24</v>
@@ -6126,7 +6575,7 @@
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -6138,7 +6587,7 @@
     <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>24</v>
@@ -6150,7 +6599,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -6162,7 +6611,7 @@
     <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>24</v>
@@ -6174,7 +6623,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -6186,7 +6635,7 @@
     <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>24</v>
@@ -6198,7 +6647,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -6210,7 +6659,7 @@
     <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>24</v>
@@ -6222,7 +6671,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -6234,7 +6683,7 @@
     <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>24</v>
@@ -6246,7 +6695,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -6258,7 +6707,7 @@
     <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>24</v>
@@ -6270,7 +6719,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -6282,7 +6731,7 @@
     <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>24</v>
@@ -6294,7 +6743,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -6306,7 +6755,7 @@
     <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>24</v>
@@ -6318,7 +6767,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -6330,7 +6779,7 @@
     <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>24</v>
@@ -6342,7 +6791,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -6354,7 +6803,7 @@
     <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>24</v>
@@ -6366,7 +6815,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6381,7 +6830,7 @@
         <v>83</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10" t="s">
@@ -6449,7 +6898,7 @@
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -6458,7 +6907,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -6469,7 +6918,7 @@
     </row>
     <row r="58" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>24</v>
@@ -6481,13 +6930,13 @@
         <v>27</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>24</v>
@@ -6501,7 +6950,7 @@
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -6516,7 +6965,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
@@ -6552,7 +7001,7 @@
     </row>
     <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -6561,7 +7010,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -6573,7 +7022,7 @@
     <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>24</v>
@@ -6587,7 +7036,7 @@
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -6599,7 +7048,7 @@
     <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>24</v>
@@ -6611,7 +7060,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -6674,7 +7123,7 @@
         <v>83</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10" t="s">
@@ -6710,7 +7159,7 @@
     </row>
     <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -6719,7 +7168,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -6731,7 +7180,7 @@
     <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>24</v>
@@ -6745,7 +7194,7 @@
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -6757,7 +7206,7 @@
     <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>24</v>
@@ -6769,7 +7218,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
@@ -6781,7 +7230,7 @@
     <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>24</v>
@@ -6793,7 +7242,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I72" s="10"/>
       <c r="J72" s="10"/>
@@ -6805,7 +7254,7 @@
     <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>24</v>
@@ -6817,7 +7266,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
@@ -6829,7 +7278,7 @@
     <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>24</v>
@@ -6841,7 +7290,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
@@ -6853,7 +7302,7 @@
     <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>24</v>
@@ -6865,7 +7314,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -6880,7 +7329,7 @@
         <v>83</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10" t="s">
@@ -6916,7 +7365,7 @@
     </row>
     <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -6925,7 +7374,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -6937,7 +7386,7 @@
     <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>24</v>
@@ -6951,7 +7400,7 @@
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="10"/>
@@ -6963,7 +7412,7 @@
     <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>24</v>
@@ -6975,7 +7424,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
@@ -6999,7 +7448,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
@@ -7023,7 +7472,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
@@ -7035,7 +7484,7 @@
     <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>24</v>
@@ -7047,7 +7496,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
@@ -7059,7 +7508,7 @@
     <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>24</v>
@@ -7071,7 +7520,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
@@ -7086,7 +7535,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="10" t="s">
@@ -7122,7 +7571,7 @@
     </row>
     <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -7131,7 +7580,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
@@ -7143,7 +7592,7 @@
     <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>24</v>
@@ -7157,7 +7606,7 @@
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
@@ -7169,7 +7618,7 @@
     <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>24</v>
@@ -7181,7 +7630,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
@@ -7193,7 +7642,7 @@
     <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>24</v>
@@ -7205,7 +7654,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
@@ -7217,7 +7666,7 @@
     <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>24</v>
@@ -7229,7 +7678,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
@@ -7241,7 +7690,7 @@
     <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>24</v>
@@ -7253,7 +7702,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
@@ -7268,7 +7717,7 @@
         <v>83</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10" t="s">
@@ -7304,7 +7753,7 @@
     </row>
     <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -7313,7 +7762,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
@@ -7325,7 +7774,7 @@
     <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>24</v>
@@ -7339,7 +7788,7 @@
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
@@ -7351,7 +7800,7 @@
     <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>24</v>
@@ -7363,7 +7812,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -7387,7 +7836,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
@@ -7411,7 +7860,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -7435,7 +7884,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
@@ -7447,7 +7896,7 @@
     <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>24</v>
@@ -7459,7 +7908,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -7471,7 +7920,7 @@
     <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>24</v>
@@ -7485,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -7496,7 +7945,7 @@
     </row>
     <row r="103" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>24</v>
@@ -7505,7 +7954,7 @@
         <v>30</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -7514,7 +7963,7 @@
         <v>83</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10" t="s">
@@ -7550,7 +7999,7 @@
     </row>
     <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -7559,7 +8008,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -7571,7 +8020,7 @@
     <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>24</v>
@@ -7585,7 +8034,7 @@
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
@@ -7609,7 +8058,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
@@ -7624,7 +8073,7 @@
         <v>83</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="10" t="s">
@@ -7660,7 +8109,7 @@
     </row>
     <row r="111" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -7669,7 +8118,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
@@ -7681,7 +8130,7 @@
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>24</v>
@@ -7695,7 +8144,7 @@
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -7709,7 +8158,7 @@
         <v>30</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -7723,12 +8172,12 @@
         <v>30</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>24</v>
@@ -7740,13 +8189,13 @@
         <v>1</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="8" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>24</v>
@@ -7758,7 +8207,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="10"/>
@@ -7773,7 +8222,7 @@
         <v>83</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D117" s="10"/>
       <c r="E117" s="10" t="s">
@@ -7793,7 +8242,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="16" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7802,7 +8251,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
@@ -7828,7 +8277,7 @@
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>24</v>
@@ -7842,13 +8291,13 @@
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>24</v>
@@ -7860,13 +8309,13 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>24</v>
@@ -7878,7 +8327,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
@@ -7887,7 +8336,7 @@
         <v>83</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
@@ -7901,7 +8350,7 @@
     </row>
     <row r="127" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7910,7 +8359,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I127" s="10"/>
       <c r="J127" s="10"/>
@@ -7921,7 +8370,7 @@
     </row>
     <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>24</v>
@@ -7933,7 +8382,7 @@
         <v>27</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I128" s="10"/>
       <c r="J128" s="10"/>
@@ -7944,7 +8393,7 @@
     </row>
     <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>24</v>
@@ -7956,7 +8405,7 @@
         <v>27</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
@@ -7967,7 +8416,7 @@
     </row>
     <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>24</v>
@@ -7976,7 +8425,7 @@
         <v>30</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
@@ -7987,7 +8436,7 @@
     </row>
     <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>24</v>
@@ -7996,7 +8445,7 @@
         <v>30</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
@@ -8007,7 +8456,7 @@
     </row>
     <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>24</v>
@@ -8016,7 +8465,7 @@
         <v>30</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
@@ -8030,7 +8479,7 @@
         <v>83</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>30</v>

--- a/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B5BA39-971D-4B01-A889-898F484B15A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ECD4F2-DFD6-4D23-8587-0FBBB9FA8A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-38510" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="437">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,10 +725,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분당? 차감 피로도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>departure_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,10 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>per_fiatigue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최소 가치 (가치는 물고기의 크기와 회귀도를 계산)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1716,6 +1708,70 @@
   </si>
   <si>
     <t>아이템 타입(채비 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per_durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당? 차감 내구도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프 증가량 (피로도 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_item_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_item_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/회복에 대한 기획 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/회복 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프/회복 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per_fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당 피로도 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2193,23 +2249,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:H269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="86.25" customWidth="1"/>
-    <col min="9" max="12" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="7" width="4.59765625" customWidth="1"/>
+    <col min="8" max="8" width="86.19921875" customWidth="1"/>
+    <col min="9" max="12" width="7.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2235,7 +2291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2249,7 +2305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2266,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2280,7 +2336,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2294,12 +2350,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -2308,9 +2364,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2324,7 +2380,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2341,7 +2397,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2355,7 +2411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2369,7 +2425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2383,7 +2439,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2397,12 +2453,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>30</v>
@@ -2411,8 +2467,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2426,7 +2482,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2443,7 +2499,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2457,7 +2513,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2471,7 +2527,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2485,12 +2541,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>30</v>
@@ -2499,9 +2555,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2513,9 +2569,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -2530,65 +2586,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>327</v>
-      </c>
       <c r="C27" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="4" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>328</v>
-      </c>
       <c r="C28" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>24</v>
@@ -2597,15 +2653,15 @@
         <v>30</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
@@ -2614,12 +2670,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -2628,9 +2684,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2642,7 +2698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2659,7 +2715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2676,7 +2732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2690,7 +2746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2704,7 +2760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2718,9 +2774,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>24</v>
@@ -2729,26 +2785,26 @@
         <v>30</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="4" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>24</v>
@@ -2760,9 +2816,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
-        <v>176</v>
+        <v>425</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>24</v>
@@ -2771,12 +2827,12 @@
         <v>30</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>24</v>
@@ -2785,29 +2841,29 @@
         <v>30</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -2816,10 +2872,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2828,12 +2884,12 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>24</v>
@@ -2845,10 +2901,10 @@
         <v>27</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -2865,9 +2921,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>24</v>
@@ -2879,9 +2935,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>24</v>
@@ -2890,15 +2946,15 @@
         <v>30</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>30</v>
@@ -2907,8 +2963,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -2922,9 +2978,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>24</v>
@@ -2936,10 +2992,10 @@
         <v>27</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -2953,7 +3009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -2967,12 +3023,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>30</v>
@@ -2981,8 +3037,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -2996,9 +3052,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>24</v>
@@ -3010,10 +3066,10 @@
         <v>27</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3027,7 +3083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3041,7 +3097,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3052,10 +3108,10 @@
         <v>30</v>
       </c>
       <c r="H65" s="20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3069,12 +3125,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>30</v>
@@ -3083,8 +3139,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3098,7 +3154,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3117,7 +3173,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3134,12 +3190,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>30</v>
@@ -3148,10 +3204,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3163,7 +3219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3180,7 +3236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3197,7 +3253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3211,7 +3267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3225,7 +3281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3239,7 +3295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3253,9 +3309,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B81" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>24</v>
@@ -3264,10 +3320,10 @@
         <v>30</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B82" s="4" t="s">
         <v>92</v>
       </c>
@@ -3278,10 +3334,10 @@
         <v>30</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="4" t="s">
         <v>93</v>
       </c>
@@ -3292,10 +3348,10 @@
         <v>30</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>51</v>
       </c>
@@ -3309,7 +3365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>66</v>
       </c>
@@ -3326,12 +3382,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E86" t="s">
         <v>30</v>
@@ -3340,7 +3396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>167</v>
       </c>
@@ -3351,12 +3407,12 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B89" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>24</v>
@@ -3370,10 +3426,10 @@
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B90" s="4" t="s">
         <v>39</v>
       </c>
@@ -3387,7 +3443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B91" s="4" t="s">
         <v>53</v>
       </c>
@@ -3402,26 +3458,26 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
         <v>169</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E92" t="s">
         <v>30</v>
       </c>
       <c r="H92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
         <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
@@ -3430,9 +3486,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>24</v>
@@ -3441,15 +3497,15 @@
         <v>30</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E95" t="s">
         <v>30</v>
@@ -3458,10 +3514,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3470,10 +3526,10 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3490,7 +3546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3507,9 +3563,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>24</v>
@@ -3518,15 +3574,15 @@
         <v>26</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>30</v>
@@ -3535,10 +3591,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3547,12 +3603,12 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>24</v>
@@ -3564,10 +3620,10 @@
         <v>27</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3581,7 +3637,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3592,10 +3648,10 @@
         <v>30</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3609,7 +3665,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3623,12 +3679,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>30</v>
@@ -3637,12 +3693,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>30</v>
@@ -3651,7 +3707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3662,10 +3718,10 @@
         <v>26</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3676,12 +3732,12 @@
         <v>26</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B113" s="4" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>24</v>
@@ -3690,670 +3746,654 @@
         <v>30</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B117" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B118" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B119" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B122" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B123" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B124" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B125" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B126" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B129" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B130" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B132" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B134" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A136" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B137" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H114" s="4" t="s">
+    </row>
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B144" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B145" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B146" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B147" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H147" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="4" t="s">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B148" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B149" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B150" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H116" s="4" t="s">
+      <c r="C151" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H151" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="5" t="s">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A153" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B154" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" t="s">
+        <v>27</v>
+      </c>
+      <c r="H154" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B155" t="s">
+        <v>77</v>
+      </c>
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155">
         <v>200</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F119" s="4" t="s">
+      <c r="E155" t="s">
+        <v>30</v>
+      </c>
+      <c r="H155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B156" t="s">
+        <v>79</v>
+      </c>
+      <c r="C156" t="s">
+        <v>364</v>
+      </c>
+      <c r="E156" t="s">
+        <v>30</v>
+      </c>
+      <c r="H156" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B157" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" t="s">
+        <v>363</v>
+      </c>
+      <c r="E157" t="s">
+        <v>30</v>
+      </c>
+      <c r="H157" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A159" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B160" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" t="s">
+        <v>30</v>
+      </c>
+      <c r="F160" t="s">
         <v>27</v>
       </c>
-      <c r="H119" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H125" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F133" s="4" t="s">
+      <c r="H160" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B161" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" t="s">
+        <v>30</v>
+      </c>
+      <c r="F161" t="s">
         <v>27</v>
       </c>
-      <c r="H133" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
-        <v>369</v>
+        <v>203</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4362,12 +4402,12 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B164" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B164" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C164" t="s">
         <v>24</v>
@@ -4378,1147 +4418,1173 @@
       <c r="F164" t="s">
         <v>27</v>
       </c>
-      <c r="H164" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B165" t="s">
-        <v>77</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="H164" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B165" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B166" t="s">
+        <v>55</v>
+      </c>
+      <c r="C166" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" t="s">
+        <v>30</v>
+      </c>
+      <c r="H166" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B167" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="22"/>
+      <c r="B168" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" s="22"/>
+      <c r="E168" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168" s="8"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="22"/>
+      <c r="B169" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" s="22"/>
+      <c r="E169" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B170" t="s">
+        <v>231</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" t="s">
+        <v>30</v>
+      </c>
+      <c r="H170" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B171" t="s">
+        <v>204</v>
+      </c>
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B172" t="s">
+        <v>88</v>
+      </c>
+      <c r="C172" t="s">
+        <v>364</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B173" t="s">
+        <v>83</v>
+      </c>
+      <c r="C173" t="s">
+        <v>363</v>
+      </c>
+      <c r="E173" t="s">
+        <v>30</v>
+      </c>
+      <c r="H173" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B176" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B177" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B178" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B179" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B180" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B181" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B182" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B183" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B184" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A186" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B187" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B188" t="s">
+        <v>62</v>
+      </c>
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="E188" t="s">
+        <v>30</v>
+      </c>
+      <c r="H188" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B189" t="s">
+        <v>230</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B190" t="s">
+        <v>369</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" t="s">
+        <v>30</v>
+      </c>
+      <c r="H190" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B191" t="s">
+        <v>83</v>
+      </c>
+      <c r="C191" t="s">
+        <v>363</v>
+      </c>
+      <c r="E191" t="s">
+        <v>30</v>
+      </c>
+      <c r="H191" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A193" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B194" t="s">
+        <v>91</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" t="s">
+        <v>30</v>
+      </c>
+      <c r="F194" t="s">
+        <v>27</v>
+      </c>
+      <c r="H194" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B195" t="s">
+        <v>39</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B196" t="s">
+        <v>230</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="E196" t="s">
+        <v>30</v>
+      </c>
+      <c r="H196" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B197" t="s">
+        <v>213</v>
+      </c>
+      <c r="C197" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" t="s">
+        <v>30</v>
+      </c>
+      <c r="H197" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B198" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B199" t="s">
+        <v>83</v>
+      </c>
+      <c r="C199" t="s">
+        <v>363</v>
+      </c>
+      <c r="E199" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A201" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B202" t="s">
+        <v>96</v>
+      </c>
+      <c r="C202" t="s">
+        <v>24</v>
+      </c>
+      <c r="E202" t="s">
+        <v>30</v>
+      </c>
+      <c r="F202" t="s">
+        <v>27</v>
+      </c>
+      <c r="H202" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B203" t="s">
+        <v>62</v>
+      </c>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="E203" t="s">
+        <v>30</v>
+      </c>
+      <c r="H203" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B204" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B205" t="s">
+        <v>393</v>
+      </c>
+      <c r="C205" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" t="s">
+        <v>30</v>
+      </c>
+      <c r="H205" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B206" t="s">
+        <v>83</v>
+      </c>
+      <c r="C206" t="s">
+        <v>363</v>
+      </c>
+      <c r="E206" t="s">
+        <v>30</v>
+      </c>
+      <c r="H206" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A208" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B209" t="s">
+        <v>97</v>
+      </c>
+      <c r="C209" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" t="s">
+        <v>30</v>
+      </c>
+      <c r="F209" t="s">
+        <v>27</v>
+      </c>
+      <c r="H209" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B210" t="s">
+        <v>103</v>
+      </c>
+      <c r="C210" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210" t="s">
+        <v>30</v>
+      </c>
+      <c r="H210" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B211" t="s">
+        <v>102</v>
+      </c>
+      <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="E211" t="s">
+        <v>30</v>
+      </c>
+      <c r="H211" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B212" t="s">
+        <v>83</v>
+      </c>
+      <c r="C212" t="s">
+        <v>363</v>
+      </c>
+      <c r="E212" t="s">
+        <v>30</v>
+      </c>
+      <c r="H212" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="214" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B215" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B216" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B220" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B221" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C221" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D165">
-        <v>200</v>
-      </c>
-      <c r="E165" t="s">
-        <v>30</v>
-      </c>
-      <c r="H165" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B166" t="s">
-        <v>79</v>
-      </c>
-      <c r="C166" t="s">
-        <v>366</v>
-      </c>
-      <c r="E166" t="s">
-        <v>30</v>
-      </c>
-      <c r="H166" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
+      <c r="D221" s="4">
+        <v>100</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B222" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B223" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B224" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B225" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C167" t="s">
-        <v>365</v>
-      </c>
-      <c r="E167" t="s">
-        <v>30</v>
-      </c>
-      <c r="H167" t="s">
+      <c r="C225" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B170" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C170" t="s">
-        <v>24</v>
-      </c>
-      <c r="E170" t="s">
-        <v>30</v>
-      </c>
-      <c r="F170" t="s">
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A227" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B228" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F228" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H170" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B171" t="s">
-        <v>75</v>
-      </c>
-      <c r="C171" t="s">
-        <v>24</v>
-      </c>
-      <c r="E171" t="s">
-        <v>30</v>
-      </c>
-      <c r="F171" t="s">
+      <c r="H228" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B229" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B230" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B231" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H231" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B232" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B233" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B234" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B237" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F237" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H171" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B174" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C174" t="s">
-        <v>24</v>
-      </c>
-      <c r="E174" t="s">
-        <v>30</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="H237" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D238" s="4">
+        <v>100</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A241" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A242" s="13"/>
+      <c r="B242" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D242" s="14"/>
+      <c r="E242" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F242" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H174" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
+      <c r="G242" s="8"/>
+      <c r="H242" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A243" s="10"/>
+      <c r="B243" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A244" s="10"/>
+      <c r="B244" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C176" t="s">
-        <v>24</v>
-      </c>
-      <c r="E176" t="s">
-        <v>30</v>
-      </c>
-      <c r="H176" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="4" t="s">
+      <c r="C244" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244" s="10"/>
+      <c r="E244" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B245" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C245" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E245" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H245" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="22"/>
-      <c r="B178" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D178" s="22"/>
-      <c r="E178" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F178" s="8"/>
-      <c r="G178" s="22"/>
-      <c r="H178" s="22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="22"/>
-      <c r="B179" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D179" s="22"/>
-      <c r="E179" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F179" s="22"/>
-      <c r="G179" s="22"/>
-      <c r="H179" s="22" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B180" t="s">
-        <v>233</v>
-      </c>
-      <c r="C180" t="s">
-        <v>24</v>
-      </c>
-      <c r="E180" t="s">
-        <v>30</v>
-      </c>
-      <c r="H180" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B181" t="s">
-        <v>206</v>
-      </c>
-      <c r="C181" t="s">
-        <v>24</v>
-      </c>
-      <c r="E181" t="s">
-        <v>30</v>
-      </c>
-      <c r="H181" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" t="s">
-        <v>88</v>
-      </c>
-      <c r="C182" t="s">
-        <v>366</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H182" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B183" t="s">
-        <v>83</v>
-      </c>
-      <c r="C183" t="s">
-        <v>365</v>
-      </c>
-      <c r="E183" t="s">
-        <v>30</v>
-      </c>
-      <c r="H183" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H187" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H188" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H189" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E190" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E191" s="4" t="s">
+    </row>
+    <row r="246" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B246" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C246" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H246" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A247" s="10"/>
+      <c r="B247" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="H191" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E192" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H193" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H194" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F197" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H197" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B198" t="s">
-        <v>62</v>
-      </c>
-      <c r="C198" t="s">
-        <v>24</v>
-      </c>
-      <c r="E198" t="s">
-        <v>30</v>
-      </c>
-      <c r="H198" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B199" t="s">
-        <v>232</v>
-      </c>
-      <c r="C199" t="s">
-        <v>24</v>
-      </c>
-      <c r="E199" t="s">
-        <v>30</v>
-      </c>
-      <c r="H199" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B200" t="s">
-        <v>371</v>
-      </c>
-      <c r="C200" t="s">
-        <v>24</v>
-      </c>
-      <c r="E200" t="s">
-        <v>30</v>
-      </c>
-      <c r="H200" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B201" t="s">
-        <v>83</v>
-      </c>
-      <c r="C201" t="s">
-        <v>365</v>
-      </c>
-      <c r="E201" t="s">
-        <v>30</v>
-      </c>
-      <c r="H201" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B204" t="s">
-        <v>91</v>
-      </c>
-      <c r="C204" t="s">
-        <v>24</v>
-      </c>
-      <c r="E204" t="s">
-        <v>30</v>
-      </c>
-      <c r="F204" t="s">
-        <v>27</v>
-      </c>
-      <c r="H204" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B205" t="s">
-        <v>39</v>
-      </c>
-      <c r="C205" t="s">
-        <v>24</v>
-      </c>
-      <c r="E205" t="s">
-        <v>30</v>
-      </c>
-      <c r="H205" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B206" t="s">
-        <v>232</v>
-      </c>
-      <c r="C206" t="s">
-        <v>24</v>
-      </c>
-      <c r="E206" t="s">
-        <v>30</v>
-      </c>
-      <c r="H206" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B207" t="s">
-        <v>215</v>
-      </c>
-      <c r="C207" t="s">
-        <v>24</v>
-      </c>
-      <c r="E207" t="s">
-        <v>30</v>
-      </c>
-      <c r="H207" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B209" t="s">
-        <v>83</v>
-      </c>
-      <c r="C209" t="s">
-        <v>365</v>
-      </c>
-      <c r="E209" t="s">
-        <v>30</v>
-      </c>
-      <c r="H209" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B212" t="s">
-        <v>96</v>
-      </c>
-      <c r="C212" t="s">
-        <v>24</v>
-      </c>
-      <c r="E212" t="s">
-        <v>30</v>
-      </c>
-      <c r="F212" t="s">
-        <v>27</v>
-      </c>
-      <c r="H212" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B213" t="s">
-        <v>62</v>
-      </c>
-      <c r="C213" t="s">
-        <v>24</v>
-      </c>
-      <c r="E213" t="s">
-        <v>30</v>
-      </c>
-      <c r="H213" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B215" t="s">
-        <v>395</v>
-      </c>
-      <c r="C215" t="s">
-        <v>24</v>
-      </c>
-      <c r="E215" t="s">
-        <v>30</v>
-      </c>
-      <c r="H215" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B216" t="s">
-        <v>83</v>
-      </c>
-      <c r="C216" t="s">
-        <v>365</v>
-      </c>
-      <c r="E216" t="s">
-        <v>30</v>
-      </c>
-      <c r="H216" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B219" t="s">
-        <v>97</v>
-      </c>
-      <c r="C219" t="s">
-        <v>24</v>
-      </c>
-      <c r="E219" t="s">
-        <v>30</v>
-      </c>
-      <c r="F219" t="s">
-        <v>27</v>
-      </c>
-      <c r="H219" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B220" t="s">
-        <v>103</v>
-      </c>
-      <c r="C220" t="s">
-        <v>24</v>
-      </c>
-      <c r="E220" t="s">
-        <v>30</v>
-      </c>
-      <c r="H220" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B221" t="s">
-        <v>102</v>
-      </c>
-      <c r="C221" t="s">
-        <v>24</v>
-      </c>
-      <c r="E221" t="s">
-        <v>30</v>
-      </c>
-      <c r="H221" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
-        <v>83</v>
-      </c>
-      <c r="C222" t="s">
-        <v>365</v>
-      </c>
-      <c r="E222" t="s">
-        <v>30</v>
-      </c>
-      <c r="H222" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H225" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H226" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F230" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H230" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" s="4">
-        <v>100</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H231" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H232" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H234" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H235" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H238" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H239" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H240" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H241" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H242" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H243" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="5"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="5"/>
-      <c r="H244" s="5"/>
-    </row>
-    <row r="245" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H246" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D247" s="4">
-        <v>100</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
-      <c r="H247" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="4"/>
-      <c r="B248" s="4" t="s">
+      <c r="H247" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A248" s="10"/>
+      <c r="B248" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D248" s="4"/>
-      <c r="E248" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F248" s="4"/>
-      <c r="G248" s="4"/>
-      <c r="H248" s="4" t="s">
+      <c r="C248" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="12"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="13"/>
-      <c r="B251" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D251" s="14"/>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A250" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B250" s="21"/>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
+      <c r="H250" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A251" s="22"/>
+      <c r="B251" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C251" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D251" s="22"/>
       <c r="E251" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F251" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G251" s="8"/>
-      <c r="H251" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252" s="10"/>
-      <c r="B252" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D252" s="10"/>
+      <c r="G251" s="22"/>
+      <c r="H251" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A252" s="22"/>
+      <c r="B252" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C252" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D252" s="22">
+        <v>100</v>
+      </c>
       <c r="E252" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F252" s="10"/>
-      <c r="G252" s="10"/>
-      <c r="H252" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F252" s="22"/>
+      <c r="G252" s="22"/>
+      <c r="H252" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>24</v>
+        <v>363</v>
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="10" t="s">
@@ -5526,133 +5592,142 @@
       </c>
       <c r="F253" s="10"/>
       <c r="G253" s="10"/>
-      <c r="H253" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H253" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254" s="10"/>
-      <c r="B254" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F254" s="4"/>
-      <c r="G254" s="4"/>
-      <c r="H254" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A255" s="10"/>
-      <c r="B255" s="10" t="s">
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="10"/>
+      <c r="G254" s="10"/>
+      <c r="H254" s="10"/>
+    </row>
+    <row r="255" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B255" s="21"/>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="21"/>
+      <c r="H255" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="22"/>
+      <c r="B256" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C256" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D256" s="22"/>
+      <c r="E256" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G256" s="22"/>
+      <c r="H256" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A257" s="22"/>
+      <c r="B257" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C257" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D257" s="22">
+        <v>100</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F257" s="22"/>
+      <c r="G257" s="22"/>
+      <c r="H257" s="22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A258" s="10"/>
+      <c r="B258" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C258" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A259" s="10"/>
+      <c r="B259" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C255" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D255" s="10"/>
-      <c r="E255" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F255" s="10"/>
-      <c r="G255" s="10"/>
-      <c r="H255" s="10" t="s">
+      <c r="C259" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F259" s="10"/>
+      <c r="G259" s="10"/>
+      <c r="H259" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="B257" s="21"/>
-      <c r="C257" s="21"/>
-      <c r="D257" s="21"/>
-      <c r="E257" s="21"/>
-      <c r="F257" s="21"/>
-      <c r="G257" s="21"/>
-      <c r="H257" s="21" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="22"/>
-      <c r="B258" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="C258" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D258" s="22"/>
-      <c r="E258" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F258" s="8" t="s">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A261" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B261" s="21"/>
+      <c r="C261" s="21"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="21"/>
+      <c r="F261" s="21"/>
+      <c r="G261" s="21"/>
+      <c r="H261" s="21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B262" t="s">
+        <v>404</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F262" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G258" s="22"/>
-      <c r="H258" s="22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" s="22"/>
-      <c r="B259" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="D259" s="22">
-        <v>100</v>
-      </c>
-      <c r="E259" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F259" s="22"/>
-      <c r="G259" s="22"/>
-      <c r="H259" s="22" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D260" s="10"/>
-      <c r="E260" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10"/>
-      <c r="H260" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A262" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="B262" s="21"/>
-      <c r="C262" s="21"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="21"/>
-      <c r="F262" s="21"/>
-      <c r="G262" s="21"/>
-      <c r="H262" s="21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H262" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B263" t="s">
         <v>406</v>
       </c>
@@ -5662,63 +5737,66 @@
       <c r="E263" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F263" s="8" t="s">
+      <c r="H263" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A264" s="10"/>
+      <c r="B264" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F264" s="10"/>
+      <c r="G264" s="10"/>
+      <c r="H264" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A266" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B266" s="21"/>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="21"/>
+      <c r="F266" s="21"/>
+      <c r="G266" s="21"/>
+      <c r="H266" s="21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A267" s="20"/>
+      <c r="B267" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C267" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D267" s="20"/>
+      <c r="E267" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F267" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H263" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B264" t="s">
-        <v>408</v>
-      </c>
-      <c r="C264" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E264" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H264" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="10"/>
-      <c r="B265" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D265" s="10"/>
-      <c r="E265" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F265" s="10"/>
-      <c r="G265" s="10"/>
-      <c r="H265" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A267" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B267" s="21"/>
-      <c r="C267" s="21"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="21"/>
-      <c r="F267" s="21"/>
-      <c r="G267" s="21"/>
-      <c r="H267" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G267" s="20"/>
+      <c r="H267" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C268" s="20" t="s">
         <v>24</v>
@@ -5727,47 +5805,27 @@
       <c r="E268" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F268" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="F268" s="20"/>
       <c r="G268" s="20"/>
       <c r="H268" s="20" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A269" s="20"/>
-      <c r="B269" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="C269" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D269" s="20"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A269" s="10"/>
+      <c r="B269" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D269" s="10"/>
       <c r="E269" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F269" s="20"/>
-      <c r="G269" s="20"/>
-      <c r="H269" s="20" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A270" s="10"/>
-      <c r="B270" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D270" s="10"/>
-      <c r="E270" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F270" s="10"/>
-      <c r="G270" s="10"/>
-      <c r="H270" s="10" t="s">
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5780,24 +5838,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5823,7 +5881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5834,12 +5892,12 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>113</v>
@@ -5851,13 +5909,13 @@
         <v>114</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>24</v>
@@ -5869,7 +5927,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -5878,9 +5936,9 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>113</v>
@@ -5889,12 +5947,12 @@
         <v>26</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>113</v>
@@ -5903,12 +5961,12 @@
         <v>132</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>113</v>
@@ -5917,13 +5975,13 @@
         <v>132</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>24</v>
@@ -5935,7 +5993,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -5944,12 +6002,12 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>132</v>
@@ -5958,7 +6016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>112</v>
       </c>
@@ -5969,13 +6027,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>24</v>
@@ -5989,7 +6047,7 @@
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -5998,10 +6056,10 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>24</v>
@@ -6013,7 +6071,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -6022,10 +6080,10 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>25</v>
@@ -6039,7 +6097,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -6048,7 +6106,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
         <v>119</v>
       </c>
@@ -6062,7 +6120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B16" s="10" t="s">
         <v>130</v>
       </c>
@@ -6076,9 +6134,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>24</v>
@@ -6090,9 +6148,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>24</v>
@@ -6104,7 +6162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
         <v>136</v>
       </c>
@@ -6115,13 +6173,13 @@
         <v>132</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>24</v>
@@ -6133,7 +6191,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -6142,10 +6200,10 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>24</v>
@@ -6157,7 +6215,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -6166,10 +6224,10 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>24</v>
@@ -6181,7 +6239,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -6190,13 +6248,13 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
@@ -6214,9 +6272,9 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -6225,7 +6283,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -6234,10 +6292,10 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>24</v>
@@ -6251,7 +6309,7 @@
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -6260,10 +6318,10 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>24</v>
@@ -6284,7 +6342,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>11</v>
@@ -6308,73 +6366,65 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F29" s="4"/>
       <c r="H29" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10" t="s">
+      <c r="C32" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -6383,50 +6433,34 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10" t="s">
-        <v>243</v>
+    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -6435,102 +6469,127 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="4" t="s">
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="4" t="s">
+      <c r="C38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10" t="s">
+      <c r="C39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>308</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -6538,45 +6597,26 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10" t="s">
-        <v>289</v>
-      </c>
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -6584,22 +6624,18 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10" t="s">
-        <v>243</v>
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -6608,10 +6644,10 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>24</v>
@@ -6620,10 +6656,12 @@
       <c r="E44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -6632,10 +6670,10 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>24</v>
@@ -6647,7 +6685,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -6656,10 +6694,10 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>24</v>
@@ -6680,10 +6718,10 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>24</v>
@@ -6704,10 +6742,10 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>24</v>
@@ -6728,22 +6766,22 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -6752,22 +6790,22 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -6776,10 +6814,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>24</v>
@@ -6791,7 +6829,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -6800,10 +6838,10 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>24</v>
@@ -6815,7 +6853,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6824,22 +6862,22 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -6848,15 +6886,23 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
@@ -6864,15 +6910,23 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
@@ -6880,7 +6934,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6896,19 +6950,15 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7" t="s">
-        <v>361</v>
-      </c>
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -6916,41 +6966,34 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10" t="s">
-        <v>243</v>
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+    </row>
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -6959,39 +7002,42 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+      <c r="H61" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
@@ -6999,18 +7045,22 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7" t="s">
-        <v>276</v>
+    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -7019,48 +7069,34 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10" t="s">
-        <v>243</v>
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+    </row>
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -7069,34 +7105,36 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10" t="s">
-        <v>32</v>
+    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="10"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>24</v>
@@ -7108,7 +7146,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10" t="s">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
@@ -7117,13 +7155,13 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10" t="s">
@@ -7132,7 +7170,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
@@ -7141,15 +7179,23 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+      <c r="H68" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -7157,18 +7203,22 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7" t="s">
-        <v>239</v>
+    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -7177,48 +7227,34 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-    </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10" t="s">
-        <v>242</v>
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
@@ -7227,34 +7263,36 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-    </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>24</v>
@@ -7266,7 +7304,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
@@ -7275,10 +7313,10 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>24</v>
@@ -7290,7 +7328,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
@@ -7299,10 +7337,10 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>24</v>
@@ -7314,7 +7352,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -7323,13 +7361,13 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10" t="s">
@@ -7338,7 +7376,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -7347,15 +7385,23 @@
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+      <c r="B77" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
+      <c r="H77" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
@@ -7363,18 +7409,22 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7" t="s">
-        <v>239</v>
+    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -7383,48 +7433,34 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="I79" s="8"/>
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10" t="s">
-        <v>242</v>
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
@@ -7433,34 +7469,36 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="I81" s="10"/>
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I81" s="8"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>24</v>
@@ -7472,7 +7510,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
@@ -7481,10 +7519,10 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>24</v>
@@ -7496,7 +7534,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
@@ -7505,10 +7543,10 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>24</v>
@@ -7520,7 +7558,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
@@ -7529,13 +7567,13 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="10" t="s">
@@ -7544,7 +7582,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
@@ -7553,15 +7591,23 @@
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+      <c r="B86" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
+      <c r="E86" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
+      <c r="H86" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
@@ -7569,18 +7615,22 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7" t="s">
-        <v>239</v>
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
@@ -7589,25 +7639,15 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8" t="s">
-        <v>254</v>
-      </c>
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -7615,22 +7655,18 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="10"/>
-      <c r="B89" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="8" t="s">
-        <v>257</v>
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
@@ -7639,22 +7675,24 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
@@ -7663,10 +7701,10 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
-      <c r="B91" s="10" t="s">
-        <v>233</v>
+      <c r="B91" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>24</v>
@@ -7677,8 +7715,8 @@
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
-      <c r="H91" s="10" t="s">
-        <v>223</v>
+      <c r="H91" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
@@ -7687,10 +7725,10 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>24</v>
@@ -7701,8 +7739,8 @@
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
-      <c r="H92" s="10" t="s">
-        <v>248</v>
+      <c r="H92" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
@@ -7711,13 +7749,13 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10" t="s">
@@ -7726,7 +7764,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -7735,15 +7773,23 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
+      <c r="B94" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
+      <c r="E94" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="H94" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
@@ -7751,18 +7797,22 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7" t="s">
-        <v>265</v>
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
@@ -7771,25 +7821,15 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
-      <c r="B96" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
       <c r="D96" s="10"/>
-      <c r="E96" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H96" s="10"/>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -7797,22 +7837,18 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10" t="s">
-        <v>115</v>
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -7821,10 +7857,10 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>24</v>
@@ -7833,10 +7869,12 @@
       <c r="E98" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G98" s="10"/>
       <c r="H98" s="10" t="s">
-        <v>263</v>
+        <v>128</v>
       </c>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
@@ -7845,10 +7883,10 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>24</v>
@@ -7860,7 +7898,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -7869,22 +7907,22 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
@@ -7893,22 +7931,22 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
-        <v>221</v>
+        <v>55</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -7917,24 +7955,22 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F102" s="10"/>
-      <c r="G102" s="10">
-        <v>1</v>
-      </c>
+      <c r="G102" s="10"/>
       <c r="H102" s="10" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -7943,36 +7979,48 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+    </row>
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
+      <c r="G104" s="10">
+        <v>1</v>
+      </c>
       <c r="H104" s="10" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -7981,34 +8029,36 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-    </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7" t="s">
-        <v>309</v>
+    <row r="105" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B105" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -8017,25 +8067,15 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
-      <c r="B107" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
       <c r="D107" s="10"/>
-      <c r="E107" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
       <c r="G107" s="10"/>
-      <c r="H107" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
@@ -8043,22 +8083,18 @@
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10" t="s">
-        <v>264</v>
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
@@ -8067,22 +8103,24 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G109" s="10"/>
       <c r="H109" s="10" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
@@ -8091,15 +8129,23 @@
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
+      <c r="B110" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
+      <c r="E110" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
+      <c r="H110" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -8107,18 +8153,22 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7" t="s">
-        <v>266</v>
+    <row r="111" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
@@ -8127,177 +8177,173 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8" t="s">
+    <row r="112" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+    </row>
+    <row r="113" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B115" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B116" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B113" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H113" s="10" t="s">
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B117" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" s="10">
+        <v>1</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B114" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B115" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" s="10">
-        <v>1</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10"/>
-    </row>
-    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10" t="s">
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+    </row>
+    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10" t="s">
+      <c r="C119" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" s="4"/>
-      <c r="H122" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A122" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>24</v>
@@ -8306,16 +8352,18 @@
       <c r="E123" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="F123" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>24</v>
@@ -8324,19 +8372,21 @@
       <c r="E124" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F124" s="4"/>
+      <c r="F124" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G124" s="4"/>
-      <c r="H124" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H124" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
@@ -8345,67 +8395,57 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+    <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-    </row>
-    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-    </row>
-    <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
@@ -8414,9 +8454,9 @@
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
     </row>
-    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B130" s="4" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>24</v>
@@ -8424,8 +8464,11 @@
       <c r="E130" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F130" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H130" s="4" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="I130" s="10"/>
       <c r="J130" s="10"/>
@@ -8434,9 +8477,9 @@
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
     </row>
-    <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>24</v>
@@ -8444,8 +8487,11 @@
       <c r="E131" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H131" s="4" t="s">
-        <v>319</v>
+      <c r="F131" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="I131" s="10"/>
       <c r="J131" s="10"/>
@@ -8454,9 +8500,9 @@
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
     </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B132" s="4" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>24</v>
@@ -8465,7 +8511,7 @@
         <v>30</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
@@ -8474,18 +8520,18 @@
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
     </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B133" s="4" t="s">
-        <v>83</v>
+        <v>316</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>365</v>
+        <v>24</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="I133" s="10"/>
       <c r="J133" s="10"/>
@@ -8494,39 +8540,47 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
     </row>
-    <row r="135" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-    </row>
-    <row r="136" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B134" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+    </row>
+    <row r="135" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B135" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+    </row>
+    <row r="137" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -8542,7 +8596,7 @@
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
     </row>
-    <row r="138" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -8558,10 +8612,23 @@
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
     </row>
-    <row r="139" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H139" s="6"/>
-    </row>
-    <row r="140" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
+    </row>
+    <row r="140" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8577,6 +8644,25 @@
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
     </row>
+    <row r="141" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ECD4F2-DFD6-4D23-8587-0FBBB9FA8A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4354DF7-1960-495C-A270-2590E81EF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-10870" windowWidth="38620" windowHeight="21220" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="439">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1772,6 +1772,13 @@
   </si>
   <si>
     <t>분당 피로도 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_grade_code</t>
+  </si>
+  <si>
+    <t>물고기등급코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2249,23 +2256,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
-  <dimension ref="A1:H269"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" customWidth="1"/>
-    <col min="4" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="86.19921875" customWidth="1"/>
-    <col min="9" max="12" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="86.25" customWidth="1"/>
+    <col min="9" max="12" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2305,7 +2312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2322,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -2364,9 +2371,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2380,7 +2387,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2397,7 +2404,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2411,7 +2418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2439,7 +2446,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2453,7 +2460,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
@@ -2467,8 +2474,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2482,7 +2489,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2499,7 +2506,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2513,7 +2520,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2527,7 +2534,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2541,7 +2548,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
@@ -2555,7 +2562,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>334</v>
       </c>
@@ -2569,7 +2576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>344</v>
       </c>
@@ -2586,7 +2593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>322</v>
       </c>
@@ -2600,7 +2607,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>325</v>
       </c>
@@ -2614,7 +2621,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>326</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>327</v>
       </c>
@@ -2642,7 +2649,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>176</v>
       </c>
@@ -2656,7 +2663,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2670,7 +2677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>365</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2715,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2746,7 +2753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2760,7 +2767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2774,7 +2781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>231</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
@@ -2802,7 +2809,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
@@ -2816,7 +2823,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>425</v>
       </c>
@@ -2830,7 +2837,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>272</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>330</v>
       </c>
@@ -2858,7 +2865,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2872,8 +2879,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>335</v>
       </c>
@@ -2887,7 +2894,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>345</v>
       </c>
@@ -2904,7 +2911,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -2921,7 +2928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>344</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>346</v>
       </c>
@@ -2949,7 +2956,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
@@ -2963,8 +2970,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -2978,7 +2985,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
         <v>276</v>
       </c>
@@ -2995,7 +3002,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3009,7 +3016,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3023,7 +3030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
@@ -3037,8 +3044,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
         <v>279</v>
       </c>
@@ -3069,7 +3076,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3083,7 +3090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3097,7 +3104,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3125,7 +3132,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
@@ -3139,8 +3146,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3154,7 +3161,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3190,7 +3197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
@@ -3204,8 +3211,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>366</v>
       </c>
@@ -3219,7 +3226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3253,7 +3260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3267,7 +3274,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3281,7 +3288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3295,7 +3302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3309,198 +3316,198 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="4" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>363</v>
+      </c>
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B88" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="H88" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" t="s">
+        <v>364</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" s="4" t="s">
+      <c r="C92" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="20" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="4" t="s">
+    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" s="4" t="s">
+      <c r="C93" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="4" t="s">
+    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" s="4" t="s">
+      <c r="C94" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="20" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
-      </c>
-      <c r="H85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" t="s">
-        <v>363</v>
-      </c>
-      <c r="E86" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B90" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" t="s">
-        <v>30</v>
-      </c>
-      <c r="H90" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B91" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" t="s">
-        <v>30</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="H91" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B92" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E92" t="s">
-        <v>30</v>
-      </c>
-      <c r="H92" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B93" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" t="s">
-        <v>364</v>
-      </c>
-      <c r="E93" t="s">
-        <v>30</v>
-      </c>
-      <c r="H93" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>83</v>
       </c>
@@ -3514,8 +3521,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -3529,7 +3536,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3546,7 +3553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="17" t="s">
         <v>360</v>
       </c>
@@ -3577,7 +3584,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
@@ -3591,8 +3598,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3606,7 +3613,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
@@ -3623,7 +3630,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3637,7 +3644,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3651,7 +3658,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3665,7 +3672,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3679,7 +3686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
@@ -3693,7 +3700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
@@ -3707,7 +3714,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3721,7 +3728,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3735,7 +3742,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -3749,7 +3756,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
         <v>83</v>
       </c>
@@ -3763,8 +3770,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
@@ -3778,7 +3785,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="s">
         <v>198</v>
       </c>
@@ -3795,7 +3802,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
         <v>62</v>
       </c>
@@ -3809,7 +3816,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>53</v>
       </c>
@@ -3823,7 +3830,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
@@ -3837,7 +3844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
         <v>58</v>
       </c>
@@ -3851,7 +3858,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
         <v>61</v>
       </c>
@@ -3865,7 +3872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
         <v>63</v>
       </c>
@@ -3879,7 +3886,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="17" t="s">
         <v>64</v>
       </c>
@@ -3893,7 +3900,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>217</v>
       </c>
@@ -3907,7 +3914,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
         <v>83</v>
       </c>
@@ -3921,8 +3928,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>186</v>
       </c>
@@ -3936,7 +3943,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="5" t="s">
         <v>198</v>
       </c>
@@ -3953,7 +3960,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
@@ -3967,7 +3974,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>53</v>
       </c>
@@ -3981,7 +3988,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>58</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>61</v>
       </c>
@@ -4009,7 +4016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>83</v>
       </c>
@@ -4023,7 +4030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4033,7 +4040,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>189</v>
       </c>
@@ -4047,7 +4054,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="5" t="s">
         <v>198</v>
       </c>
@@ -4064,7 +4071,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>62</v>
@@ -4082,7 +4089,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>53</v>
@@ -4100,7 +4107,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>51</v>
@@ -4118,7 +4125,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -4136,8 +4143,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -4151,7 +4158,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="5" t="s">
         <v>198</v>
       </c>
@@ -4168,7 +4175,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
         <v>62</v>
       </c>
@@ -4182,7 +4189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
         <v>53</v>
       </c>
@@ -4196,7 +4203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
         <v>71</v>
       </c>
@@ -4210,7 +4217,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
         <v>72</v>
       </c>
@@ -4224,7 +4231,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
         <v>65</v>
       </c>
@@ -4238,7 +4245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
         <v>217</v>
       </c>
@@ -4252,7 +4259,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
@@ -4266,8 +4273,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>367</v>
       </c>
@@ -4281,7 +4288,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>75</v>
       </c>
@@ -4298,7 +4305,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>77</v>
       </c>
@@ -4315,7 +4322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>79</v>
       </c>
@@ -4329,7 +4336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>83</v>
       </c>
@@ -4343,7 +4350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4357,7 +4364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B160" s="5" t="s">
         <v>198</v>
       </c>
@@ -4374,118 +4381,114 @@
         <v>362</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B161" t="s">
+    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H161" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
         <v>75</v>
       </c>
-      <c r="C161" t="s">
-        <v>24</v>
-      </c>
-      <c r="E161" t="s">
-        <v>30</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162" t="s">
         <v>27</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H162" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A163" s="2" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="3" t="s">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B164" s="4" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B165" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C164" t="s">
-        <v>24</v>
-      </c>
-      <c r="E164" t="s">
-        <v>30</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="C165" t="s">
+        <v>24</v>
+      </c>
+      <c r="E165" t="s">
+        <v>30</v>
+      </c>
+      <c r="F165" t="s">
         <v>27</v>
       </c>
-      <c r="H164" s="4" t="s">
+      <c r="H165" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B165" s="5" t="s">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H165" s="4" t="s">
+      <c r="C166" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H166" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B166" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
         <v>55</v>
       </c>
-      <c r="C166" t="s">
-        <v>24</v>
-      </c>
-      <c r="E166" t="s">
-        <v>30</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="C167" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" t="s">
+        <v>30</v>
+      </c>
+      <c r="H167" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B167" s="4" t="s">
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H167" s="4" t="s">
+      <c r="C168" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H168" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="22"/>
-      <c r="B168" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D168" s="22"/>
-      <c r="E168" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F168" s="8"/>
-      <c r="G168" s="22"/>
-      <c r="H168" s="22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>24</v>
@@ -4494,361 +4497,351 @@
       <c r="E169" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F169" s="22"/>
+      <c r="F169" s="8"/>
       <c r="G169" s="22"/>
       <c r="H169" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="22"/>
+      <c r="B170" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" s="22"/>
+      <c r="E170" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B170" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
         <v>231</v>
       </c>
-      <c r="C170" t="s">
-        <v>24</v>
-      </c>
-      <c r="E170" t="s">
-        <v>30</v>
-      </c>
-      <c r="H170" t="s">
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+      <c r="H171" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B171" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
         <v>204</v>
       </c>
-      <c r="C171" t="s">
-        <v>24</v>
-      </c>
-      <c r="E171" t="s">
-        <v>30</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" t="s">
+        <v>30</v>
+      </c>
+      <c r="H172" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B172" t="s">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
         <v>88</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>364</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H172" t="s">
+      <c r="E173" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H173" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B173" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
         <v>83</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>363</v>
       </c>
-      <c r="E173" t="s">
-        <v>30</v>
-      </c>
-      <c r="H173" t="s">
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="2" t="s">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="3" t="s">
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B176" s="4" t="s">
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F176" s="4" t="s">
+      <c r="C177" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H176" s="4" t="s">
+      <c r="H177" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B177" s="5" t="s">
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H177" s="6" t="s">
+      <c r="C178" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H178" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B178" s="4" t="s">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H178" s="4" t="s">
+      <c r="C179" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H179" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B179" s="4" t="s">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H179" s="4" t="s">
+      <c r="C180" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H180" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B180" s="4" t="s">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H180" s="4" t="s">
+      <c r="C181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H181" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B181" s="4" t="s">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B182" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="C182" s="4" t="s">
-        <v>364</v>
+        <v>24</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>364</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H183" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H184" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B184" s="4" t="s">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C185" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H184" s="4" t="s">
+      <c r="E185" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H185" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A186" s="2" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="3" t="s">
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B187" s="5" t="s">
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F187" s="4" t="s">
+      <c r="C188" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H187" s="6" t="s">
+      <c r="H188" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B188" t="s">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
         <v>62</v>
       </c>
-      <c r="C188" t="s">
-        <v>24</v>
-      </c>
-      <c r="E188" t="s">
-        <v>30</v>
-      </c>
-      <c r="H188" t="s">
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B189" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
         <v>230</v>
       </c>
-      <c r="C189" t="s">
-        <v>24</v>
-      </c>
-      <c r="E189" t="s">
-        <v>30</v>
-      </c>
-      <c r="H189" t="s">
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" t="s">
+        <v>30</v>
+      </c>
+      <c r="H190" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B190" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
         <v>369</v>
       </c>
-      <c r="C190" t="s">
-        <v>24</v>
-      </c>
-      <c r="E190" t="s">
-        <v>30</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" t="s">
+        <v>30</v>
+      </c>
+      <c r="H191" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B191" t="s">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
         <v>83</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C192" t="s">
         <v>363</v>
       </c>
-      <c r="E191" t="s">
-        <v>30</v>
-      </c>
-      <c r="H191" t="s">
+      <c r="E192" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A193" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B194" t="s">
-        <v>91</v>
-      </c>
-      <c r="C194" t="s">
-        <v>24</v>
-      </c>
-      <c r="E194" t="s">
-        <v>30</v>
-      </c>
-      <c r="F194" t="s">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>96</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="E196" t="s">
+        <v>30</v>
+      </c>
+      <c r="F196" t="s">
         <v>27</v>
       </c>
-      <c r="H194" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B195" t="s">
-        <v>39</v>
-      </c>
-      <c r="C195" t="s">
-        <v>24</v>
-      </c>
-      <c r="E195" t="s">
-        <v>30</v>
-      </c>
-      <c r="H195" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B196" t="s">
-        <v>230</v>
-      </c>
-      <c r="C196" t="s">
-        <v>24</v>
-      </c>
-      <c r="E196" t="s">
-        <v>30</v>
-      </c>
       <c r="H196" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C197" t="s">
         <v>24</v>
@@ -4857,93 +4850,93 @@
         <v>30</v>
       </c>
       <c r="H197" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
+        <v>393</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
         <v>83</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>363</v>
       </c>
-      <c r="E199" t="s">
-        <v>30</v>
-      </c>
-      <c r="H199" t="s">
+      <c r="E200" t="s">
+        <v>30</v>
+      </c>
+      <c r="H200" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A201" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B202" t="s">
-        <v>96</v>
-      </c>
-      <c r="C202" t="s">
-        <v>24</v>
-      </c>
-      <c r="E202" t="s">
-        <v>30</v>
-      </c>
-      <c r="F202" t="s">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>97</v>
+      </c>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="E203" t="s">
+        <v>30</v>
+      </c>
+      <c r="F203" t="s">
         <v>27</v>
       </c>
-      <c r="H202" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B203" t="s">
-        <v>62</v>
-      </c>
-      <c r="C203" t="s">
-        <v>24</v>
-      </c>
-      <c r="E203" t="s">
-        <v>30</v>
-      </c>
       <c r="H203" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B204" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H204" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>103</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" t="s">
+        <v>30</v>
+      </c>
+      <c r="H204" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>393</v>
+        <v>102</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
@@ -4952,10 +4945,10 @@
         <v>30</v>
       </c>
       <c r="H205" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>83</v>
       </c>
@@ -4969,9 +4962,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4980,605 +4974,631 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B209" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C209" t="s">
-        <v>24</v>
-      </c>
-      <c r="E209" t="s">
-        <v>30</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="C209" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F209" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H209" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B210" t="s">
-        <v>103</v>
-      </c>
-      <c r="C210" t="s">
-        <v>24</v>
-      </c>
-      <c r="E210" t="s">
-        <v>30</v>
-      </c>
-      <c r="H210" t="s">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B211" t="s">
-        <v>102</v>
-      </c>
-      <c r="C211" t="s">
-        <v>24</v>
-      </c>
-      <c r="E211" t="s">
-        <v>30</v>
-      </c>
-      <c r="H211" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B212" t="s">
+      <c r="E215" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C219" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E212" t="s">
-        <v>30</v>
-      </c>
-      <c r="H212" t="s">
+      <c r="E219" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H219" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="214" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B215" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F215" s="4" t="s">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F222" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H215" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B216" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F216" s="4" t="s">
+      <c r="H222" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+    </row>
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F231" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H216" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B220" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F220" s="5" t="s">
+      <c r="H231" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D232" s="4">
+        <v>100</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="13"/>
+      <c r="B236" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D236" s="14"/>
+      <c r="E236" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F236" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H220" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B221" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D221" s="4">
+      <c r="G236" s="8"/>
+      <c r="H236" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="10"/>
+      <c r="B237" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D237" s="10"/>
+      <c r="E237" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="10"/>
+      <c r="B238" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C239" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E239" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H239" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C240" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E240" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H240" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="10"/>
+      <c r="B241" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="10"/>
+      <c r="B242" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B244" s="21"/>
+      <c r="C244" s="21"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="21"/>
+      <c r="G244" s="21"/>
+      <c r="H244" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="22"/>
+      <c r="B245" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C245" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D245" s="22"/>
+      <c r="E245" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G245" s="22"/>
+      <c r="H245" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="22"/>
+      <c r="B246" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C246" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D246" s="22">
         <v>100</v>
       </c>
-      <c r="E221" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H221" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B222" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H222" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B223" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H223" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B224" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H224" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B225" s="5" t="s">
+      <c r="E246" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F246" s="22"/>
+      <c r="G246" s="22"/>
+      <c r="H246" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="10"/>
+      <c r="B247" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C247" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E225" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H225" s="5" t="s">
+      <c r="D247" s="10"/>
+      <c r="E247" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B228" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F228" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B229" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H229" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B230" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H230" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B231" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E231" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H231" s="20" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B232" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H232" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B233" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B234" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H234" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-    </row>
-    <row r="236" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B237" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H237" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A238" s="4"/>
-      <c r="B238" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D238" s="4">
-        <v>100</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F238" s="4"/>
-      <c r="G238" s="4"/>
-      <c r="H238" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F239" s="4"/>
-      <c r="G239" s="4"/>
-      <c r="H239" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A241" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A242" s="13"/>
-      <c r="B242" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D242" s="14"/>
-      <c r="E242" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F242" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A243" s="10"/>
-      <c r="B243" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D243" s="10"/>
-      <c r="E243" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
-      <c r="H243" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A244" s="10"/>
-      <c r="B244" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D244" s="10"/>
-      <c r="E244" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-      <c r="H244" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B245" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C245" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E245" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H245" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B246" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C246" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E246" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H246" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A247" s="10"/>
-      <c r="B247" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D247" s="4"/>
-      <c r="E247" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F247" s="4"/>
-      <c r="G247" s="4"/>
-      <c r="H247" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="10"/>
-      <c r="B248" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>363</v>
-      </c>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
       <c r="D248" s="10"/>
-      <c r="E248" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
-      <c r="H248" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A250" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="B250" s="21"/>
-      <c r="C250" s="21"/>
-      <c r="D250" s="21"/>
-      <c r="E250" s="21"/>
-      <c r="F250" s="21"/>
-      <c r="G250" s="21"/>
-      <c r="H250" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H248" s="10"/>
+    </row>
+    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B249" s="21"/>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="22"/>
+      <c r="B250" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C250" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250" s="22"/>
+      <c r="E250" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G250" s="22"/>
+      <c r="H250" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D251" s="22"/>
+        <v>403</v>
+      </c>
+      <c r="D251" s="22">
+        <v>100</v>
+      </c>
       <c r="E251" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F251" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="F251" s="22"/>
       <c r="G251" s="22"/>
       <c r="H251" s="22" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A252" s="22"/>
-      <c r="B252" s="22" t="s">
-        <v>418</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="10"/>
+      <c r="B252" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D252" s="22">
-        <v>100</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D252" s="10"/>
       <c r="E252" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F252" s="22"/>
-      <c r="G252" s="22"/>
-      <c r="H252" s="22" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>83</v>
@@ -5596,19 +5616,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A254" s="10"/>
-      <c r="B254" s="10"/>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10"/>
-      <c r="E254" s="10"/>
-      <c r="F254" s="10"/>
-      <c r="G254" s="10"/>
-      <c r="H254" s="10"/>
-    </row>
-    <row r="255" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="21" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
@@ -5617,56 +5627,47 @@
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
       <c r="H255" s="21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="22"/>
-      <c r="B256" s="22" t="s">
-        <v>429</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>404</v>
       </c>
       <c r="C256" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D256" s="22"/>
       <c r="E256" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F256" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G256" s="22"/>
-      <c r="H256" s="22" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="22"/>
-      <c r="B257" s="22" t="s">
-        <v>430</v>
+      <c r="H256" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>406</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D257" s="22">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E257" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F257" s="22"/>
-      <c r="G257" s="22"/>
-      <c r="H257" s="22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H257" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="10"/>
-      <c r="B258" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="C258" s="20" t="s">
-        <v>24</v>
+      <c r="B258" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="D258" s="10"/>
       <c r="E258" s="10" t="s">
@@ -5675,157 +5676,76 @@
       <c r="F258" s="10"/>
       <c r="G258" s="10"/>
       <c r="H258" s="10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="10"/>
-      <c r="B259" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B260" s="21"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
+      <c r="H260" s="21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="20"/>
+      <c r="B261" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D261" s="20"/>
+      <c r="E261" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G261" s="20"/>
+      <c r="H261" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="20"/>
+      <c r="B262" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C262" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D262" s="20"/>
+      <c r="E262" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="10"/>
+      <c r="B263" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C259" s="10" t="s">
+      <c r="C263" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D259" s="10"/>
-      <c r="E259" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F259" s="10"/>
-      <c r="G259" s="10"/>
-      <c r="H259" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A261" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="B261" s="21"/>
-      <c r="C261" s="21"/>
-      <c r="D261" s="21"/>
-      <c r="E261" s="21"/>
-      <c r="F261" s="21"/>
-      <c r="G261" s="21"/>
-      <c r="H261" s="21" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B262" t="s">
-        <v>404</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E262" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F262" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H262" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B263" t="s">
-        <v>406</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="D263" s="10"/>
       <c r="E263" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H263" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="10"/>
-      <c r="B264" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D264" s="10"/>
-      <c r="E264" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F264" s="10"/>
-      <c r="G264" s="10"/>
-      <c r="H264" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A266" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="B266" s="21"/>
-      <c r="C266" s="21"/>
-      <c r="D266" s="21"/>
-      <c r="E266" s="21"/>
-      <c r="F266" s="21"/>
-      <c r="G266" s="21"/>
-      <c r="H266" s="21" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A267" s="20"/>
-      <c r="B267" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="C267" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D267" s="20"/>
-      <c r="E267" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F267" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G267" s="20"/>
-      <c r="H267" s="20" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A268" s="20"/>
-      <c r="B268" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="C268" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D268" s="20"/>
-      <c r="E268" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F268" s="20"/>
-      <c r="G268" s="20"/>
-      <c r="H268" s="20" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A269" s="10"/>
-      <c r="B269" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D269" s="10"/>
-      <c r="E269" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F269" s="10"/>
-      <c r="G269" s="10"/>
-      <c r="H269" s="10" t="s">
+      <c r="F263" s="10"/>
+      <c r="G263" s="10"/>
+      <c r="H263" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5838,24 +5758,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="A37" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5881,7 +5801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5895,7 +5815,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>224</v>
       </c>
@@ -5912,7 +5832,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>256</v>
@@ -5936,7 +5856,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>225</v>
       </c>
@@ -5950,7 +5870,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>404</v>
       </c>
@@ -5964,7 +5884,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>407</v>
       </c>
@@ -5978,7 +5898,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>238</v>
@@ -6002,7 +5922,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>131</v>
       </c>
@@ -6016,7 +5936,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>112</v>
       </c>
@@ -6030,7 +5950,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>228</v>
@@ -6056,7 +5976,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>224</v>
@@ -6080,7 +6000,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>320</v>
@@ -6106,7 +6026,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>119</v>
       </c>
@@ -6120,7 +6040,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>130</v>
       </c>
@@ -6134,7 +6054,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>232</v>
       </c>
@@ -6148,7 +6068,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>233</v>
       </c>
@@ -6162,7 +6082,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>136</v>
       </c>
@@ -6176,7 +6096,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>258</v>
@@ -6200,7 +6120,7 @@
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="18" t="s">
         <v>282</v>
@@ -6224,7 +6144,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>284</v>
@@ -6248,7 +6168,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>83</v>
@@ -6272,7 +6192,7 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>343</v>
       </c>
@@ -6292,7 +6212,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>332</v>
@@ -6318,7 +6238,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>228</v>
@@ -6342,7 +6262,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>11</v>
@@ -6366,7 +6286,7 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>336</v>
       </c>
@@ -6381,7 +6301,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
         <v>421</v>
       </c>
@@ -6395,7 +6315,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
         <v>422</v>
       </c>
@@ -6409,7 +6329,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>83</v>
@@ -6433,7 +6353,7 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -6449,7 +6369,7 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>352</v>
       </c>
@@ -6469,7 +6389,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="5" t="s">
         <v>106</v>
@@ -6495,7 +6415,7 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>228</v>
@@ -6521,7 +6441,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>65</v>
       </c>
@@ -6535,7 +6455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>110</v>
       </c>
@@ -6549,7 +6469,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>87</v>
@@ -6573,7 +6493,7 @@
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>219</v>
@@ -6597,7 +6517,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>83</v>
       </c>
@@ -6608,7 +6528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6624,7 +6544,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>377</v>
       </c>
@@ -6644,7 +6564,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>286</v>
@@ -6670,7 +6590,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>228</v>
@@ -6694,7 +6614,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>288</v>
@@ -6718,7 +6638,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>289</v>
@@ -6742,7 +6662,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>290</v>
@@ -6766,7 +6686,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>291</v>
@@ -6790,7 +6710,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>292</v>
@@ -6814,7 +6734,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>298</v>
@@ -6838,7 +6758,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>299</v>
@@ -6862,7 +6782,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>300</v>
@@ -6886,7 +6806,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>301</v>
@@ -6910,7 +6830,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>83</v>
@@ -6934,7 +6854,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6950,7 +6870,7 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6966,7 +6886,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6982,7 +6902,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>271</v>
       </c>
@@ -7002,7 +6922,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
         <v>276</v>
       </c>
@@ -7019,7 +6939,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>228</v>
@@ -7045,7 +6965,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>83</v>
@@ -7069,7 +6989,7 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -7085,7 +7005,7 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>354</v>
       </c>
@@ -7105,7 +7025,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
         <v>275</v>
@@ -7131,7 +7051,7 @@
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>228</v>
@@ -7155,7 +7075,7 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>32</v>
@@ -7179,7 +7099,7 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>39</v>
@@ -7203,7 +7123,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>83</v>
@@ -7227,7 +7147,7 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -7243,7 +7163,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>353</v>
       </c>
@@ -7263,7 +7183,7 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
         <v>245</v>
@@ -7289,7 +7209,7 @@
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>228</v>
@@ -7313,7 +7233,7 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>249</v>
@@ -7337,7 +7257,7 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>231</v>
@@ -7361,7 +7281,7 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>242</v>
@@ -7385,7 +7305,7 @@
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>243</v>
@@ -7409,7 +7329,7 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>83</v>
@@ -7433,7 +7353,7 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -7449,7 +7369,7 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>355</v>
       </c>
@@ -7469,7 +7389,7 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>247</v>
@@ -7495,7 +7415,7 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>228</v>
@@ -7519,7 +7439,7 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>62</v>
@@ -7543,7 +7463,7 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>55</v>
@@ -7567,7 +7487,7 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>231</v>
@@ -7591,7 +7511,7 @@
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>243</v>
@@ -7615,7 +7535,7 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>83</v>
@@ -7639,7 +7559,7 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -7655,7 +7575,7 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
         <v>356</v>
       </c>
@@ -7675,7 +7595,7 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
         <v>253</v>
@@ -7701,7 +7621,7 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="8" t="s">
         <v>245</v>
@@ -7725,7 +7645,7 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>247</v>
@@ -7749,7 +7669,7 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>231</v>
@@ -7773,7 +7693,7 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>243</v>
@@ -7797,7 +7717,7 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>83</v>
@@ -7821,7 +7741,7 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -7837,7 +7757,7 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>378</v>
       </c>
@@ -7857,7 +7777,7 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>160</v>
@@ -7883,7 +7803,7 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>228</v>
@@ -7907,7 +7827,7 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>62</v>
@@ -7931,7 +7851,7 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>55</v>
@@ -7955,7 +7875,7 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>87</v>
@@ -7979,7 +7899,7 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>219</v>
@@ -8003,7 +7923,7 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>139</v>
@@ -8029,7 +7949,7 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="5" t="s">
         <v>341</v>
       </c>
@@ -8043,7 +7963,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>83</v>
@@ -8067,7 +7987,7 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -8083,7 +8003,7 @@
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
     </row>
-    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>358</v>
       </c>
@@ -8103,7 +8023,7 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>160</v>
@@ -8129,7 +8049,7 @@
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>87</v>
@@ -8153,7 +8073,7 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>83</v>
@@ -8177,7 +8097,7 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
     </row>
-    <row r="112" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -8193,7 +8113,7 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>379</v>
       </c>
@@ -8213,7 +8133,7 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="8" t="s">
         <v>265</v>
@@ -8233,7 +8153,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>62</v>
       </c>
@@ -8247,7 +8167,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>55</v>
       </c>
@@ -8261,7 +8181,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>139</v>
       </c>
@@ -8278,7 +8198,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="8" t="s">
         <v>269</v>
@@ -8302,7 +8222,7 @@
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
     </row>
-    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>83</v>
@@ -8326,7 +8246,7 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
         <v>357</v>
       </c>
@@ -8340,7 +8260,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
         <v>91</v>
@@ -8360,7 +8280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
         <v>228</v>
@@ -8380,7 +8300,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
         <v>230</v>
@@ -8398,7 +8318,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
         <v>213</v>
@@ -8416,7 +8336,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
         <v>83</v>
@@ -8434,7 +8354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>311</v>
       </c>
@@ -8454,7 +8374,7 @@
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
     </row>
-    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
         <v>314</v>
       </c>
@@ -8477,7 +8397,7 @@
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
     </row>
-    <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
         <v>228</v>
       </c>
@@ -8500,7 +8420,7 @@
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
     </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>231</v>
       </c>
@@ -8520,7 +8440,7 @@
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
     </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
         <v>316</v>
       </c>
@@ -8540,7 +8460,7 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
     </row>
-    <row r="134" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>318</v>
       </c>
@@ -8560,7 +8480,7 @@
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
     </row>
-    <row r="135" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
         <v>83</v>
       </c>
@@ -8580,15 +8500,19 @@
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
     </row>
-    <row r="137" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
+    <row r="137" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
@@ -8596,15 +8520,25 @@
       <c r="M137" s="8"/>
       <c r="N137" s="8"/>
     </row>
-    <row r="138" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
+    <row r="138" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
@@ -8612,31 +8546,46 @@
       <c r="M138" s="8"/>
       <c r="N138" s="8"/>
     </row>
-    <row r="139" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-      <c r="N139" s="8"/>
-    </row>
-    <row r="140" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
+    <row r="139" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+    </row>
+    <row r="140" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20" t="s">
+        <v>438</v>
+      </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
@@ -8644,24 +8593,89 @@
       <c r="M140" s="8"/>
       <c r="N140" s="8"/>
     </row>
-    <row r="141" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="H141" s="6"/>
-    </row>
-    <row r="142" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
+    <row r="141" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="20"/>
+      <c r="B141" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+    </row>
+    <row r="142" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="20"/>
+      <c r="B142" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="20"/>
+      <c r="B143" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" s="20"/>
+      <c r="B144" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4354DF7-1960-495C-A270-2590E81EF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95CE4D0-334A-4E71-A8DC-AC366640C7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="447">
   <si>
     <t>날씨코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1779,6 +1779,38 @@
   </si>
   <si>
     <t>물고기등급코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish_inventory_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_inventory_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배에 잡은 물고기에 대한 게임 데이터 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 물고기 인벤토리번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정ID(이메일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정비번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2258,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B7C157-9B39-4442-883B-B1437C102577}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A49" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5758,15 +5790,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
     <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
@@ -5870,154 +5902,156 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10">
+        <v>200</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10">
+        <v>200</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>131</v>
+        <v>407</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>363</v>
+        <v>113</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>132</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10">
-        <v>100</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -6026,37 +6060,59 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>132</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D16" s="10">
+        <v>100</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>132</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>127</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>232</v>
+        <v>119</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>24</v>
@@ -6065,12 +6121,12 @@
         <v>132</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>24</v>
@@ -6079,12 +6135,12 @@
         <v>132</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
@@ -6093,61 +6149,41 @@
         <v>132</v>
       </c>
       <c r="H19" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>24</v>
@@ -6159,7 +6195,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -6168,42 +6204,70 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -6212,175 +6276,159 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
+    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="C28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
+      <c r="C29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10" t="s">
+      <c r="C30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="H29" s="6" t="s">
+      <c r="F31" s="4"/>
+      <c r="H31" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="20" t="s">
+      <c r="C32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20" t="s">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="20" t="s">
+      <c r="C33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="s">
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -6389,50 +6437,34 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10" t="s">
-        <v>241</v>
+      <c r="A36" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -6441,102 +6473,127 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
+    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="4" t="s">
+      <c r="C39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="s">
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10" t="s">
+      <c r="C41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="s">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10" t="s">
+      <c r="C42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
@@ -6545,44 +6602,25 @@
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10" t="s">
-        <v>287</v>
-      </c>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
@@ -6591,21 +6629,17 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10" t="s">
-        <v>241</v>
+      <c r="A45" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -6617,7 +6651,7 @@
     <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>24</v>
@@ -6626,10 +6660,12 @@
       <c r="E46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -6641,7 +6677,7 @@
     <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>24</v>
@@ -6653,7 +6689,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -6665,7 +6701,7 @@
     <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>24</v>
@@ -6677,7 +6713,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -6689,7 +6725,7 @@
     <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>24</v>
@@ -6701,7 +6737,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -6713,7 +6749,7 @@
     <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>24</v>
@@ -6725,7 +6761,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -6737,19 +6773,19 @@
     <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -6761,19 +6797,19 @@
     <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -6785,7 +6821,7 @@
     <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>24</v>
@@ -6797,7 +6833,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -6809,7 +6845,7 @@
     <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>24</v>
@@ -6821,7 +6857,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -6833,19 +6869,19 @@
     <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -6855,14 +6891,22 @@
       <c r="N55" s="10"/>
     </row>
     <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
@@ -6871,14 +6915,22 @@
       <c r="N56" s="10"/>
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
@@ -6903,18 +6955,14 @@
       <c r="N58" s="10"/>
     </row>
     <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7" t="s">
-        <v>359</v>
-      </c>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -6922,41 +6970,34 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>278</v>
-      </c>
+    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
     </row>
     <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10" t="s">
-        <v>241</v>
+      <c r="A61" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -6965,39 +7006,42 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
+    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="B63" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="H63" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
@@ -7006,17 +7050,21 @@
       <c r="N63" s="10"/>
     </row>
     <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7" t="s">
-        <v>274</v>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
@@ -7025,48 +7073,34 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
     </row>
     <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10" t="s">
-        <v>241</v>
+      <c r="A66" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
@@ -7075,34 +7109,36 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10" t="s">
-        <v>32</v>
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="10"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
     </row>
     <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>24</v>
@@ -7114,7 +7150,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10" t="s">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
@@ -7126,10 +7162,10 @@
     <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10" t="s">
@@ -7138,7 +7174,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -7149,13 +7185,21 @@
     </row>
     <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
+      <c r="B70" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
+      <c r="E70" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
+      <c r="H70" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
@@ -7164,17 +7208,21 @@
       <c r="N70" s="10"/>
     </row>
     <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7" t="s">
-        <v>237</v>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
@@ -7183,48 +7231,34 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
+    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
     </row>
     <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10" t="s">
-        <v>240</v>
+      <c r="A73" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I73" s="10"/>
       <c r="J73" s="10"/>
@@ -7233,34 +7267,36 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
+    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>24</v>
@@ -7272,7 +7308,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
@@ -7284,7 +7320,7 @@
     <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>24</v>
@@ -7296,7 +7332,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
@@ -7308,7 +7344,7 @@
     <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>24</v>
@@ -7320,7 +7356,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
@@ -7332,10 +7368,10 @@
     <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="10" t="s">
@@ -7344,7 +7380,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
@@ -7355,13 +7391,21 @@
     </row>
     <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
+      <c r="B79" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
+      <c r="E79" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
+      <c r="H79" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10"/>
@@ -7370,17 +7414,21 @@
       <c r="N79" s="10"/>
     </row>
     <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7" t="s">
-        <v>237</v>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
@@ -7390,25 +7438,15 @@
       <c r="N80" s="10"/>
     </row>
     <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I81" s="8"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
@@ -7416,21 +7454,17 @@
       <c r="N81" s="10"/>
     </row>
     <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10" t="s">
-        <v>240</v>
+      <c r="A82" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
@@ -7440,23 +7474,25 @@
       <c r="N82" s="10"/>
     </row>
     <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="I83" s="10"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I83" s="8"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -7466,7 +7502,7 @@
     <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>24</v>
@@ -7478,7 +7514,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
@@ -7490,7 +7526,7 @@
     <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>24</v>
@@ -7502,7 +7538,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
@@ -7514,7 +7550,7 @@
     <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>24</v>
@@ -7526,7 +7562,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
@@ -7538,10 +7574,10 @@
     <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10" t="s">
@@ -7550,7 +7586,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
@@ -7561,13 +7597,21 @@
     </row>
     <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
+      <c r="B88" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
+      <c r="E88" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+      <c r="H88" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
@@ -7576,17 +7620,21 @@
       <c r="N88" s="10"/>
     </row>
     <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7" t="s">
-        <v>237</v>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
@@ -7596,24 +7644,14 @@
       <c r="N89" s="10"/>
     </row>
     <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8" t="s">
-        <v>252</v>
-      </c>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
@@ -7622,21 +7660,17 @@
       <c r="N90" s="10"/>
     </row>
     <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="10"/>
-      <c r="B91" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="8" t="s">
-        <v>255</v>
+      <c r="A91" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="10"/>
@@ -7646,21 +7680,23 @@
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="8"/>
       <c r="H92" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
@@ -7671,8 +7707,8 @@
     </row>
     <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
-      <c r="B93" s="10" t="s">
-        <v>231</v>
+      <c r="B93" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>24</v>
@@ -7683,8 +7719,8 @@
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="10" t="s">
-        <v>221</v>
+      <c r="H93" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -7696,7 +7732,7 @@
     <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>24</v>
@@ -7707,8 +7743,8 @@
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="10" t="s">
-        <v>246</v>
+      <c r="H94" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
@@ -7720,10 +7756,10 @@
     <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10" t="s">
@@ -7732,7 +7768,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
@@ -7743,13 +7779,21 @@
     </row>
     <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
+      <c r="B96" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
+      <c r="E96" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
+      <c r="H96" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="I96" s="10"/>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
@@ -7758,17 +7802,21 @@
       <c r="N96" s="10"/>
     </row>
     <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7" t="s">
-        <v>263</v>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
@@ -7779,23 +7827,13 @@
     </row>
     <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
-      <c r="B98" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
       <c r="D98" s="10"/>
-      <c r="E98" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
       <c r="G98" s="10"/>
-      <c r="H98" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
@@ -7804,21 +7842,17 @@
       <c r="N98" s="10"/>
     </row>
     <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10" t="s">
-        <v>115</v>
+      <c r="A99" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="I99" s="10"/>
       <c r="J99" s="10"/>
@@ -7830,7 +7864,7 @@
     <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>24</v>
@@ -7839,10 +7873,12 @@
       <c r="E100" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G100" s="10"/>
       <c r="H100" s="10" t="s">
-        <v>261</v>
+        <v>128</v>
       </c>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
@@ -7854,7 +7890,7 @@
     <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>24</v>
@@ -7866,7 +7902,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -7878,19 +7914,19 @@
     <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -7902,19 +7938,19 @@
     <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -7926,21 +7962,19 @@
     <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F104" s="10"/>
-      <c r="G104" s="10">
-        <v>1</v>
-      </c>
+      <c r="G104" s="10"/>
       <c r="H104" s="10" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -7949,36 +7983,48 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>342</v>
-      </c>
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
     </row>
     <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
       <c r="D106" s="10"/>
       <c r="E106" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="G106" s="10">
+        <v>1</v>
+      </c>
       <c r="H106" s="10" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="I106" s="10"/>
       <c r="J106" s="10"/>
@@ -7987,34 +8033,36 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
+    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7" t="s">
-        <v>307</v>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
@@ -8023,25 +8071,15 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
-      <c r="B109" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
       <c r="D109" s="10"/>
-      <c r="E109" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
       <c r="G109" s="10"/>
-      <c r="H109" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10"/>
       <c r="K109" s="10"/>
@@ -8049,22 +8087,18 @@
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10" t="s">
-        <v>262</v>
+    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="I110" s="10"/>
       <c r="J110" s="10"/>
@@ -8073,22 +8107,24 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F111" s="10"/>
+      <c r="F111" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G111" s="10"/>
       <c r="H111" s="10" t="s">
-        <v>84</v>
+        <v>442</v>
       </c>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
@@ -8097,15 +8133,23 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
     </row>
-    <row r="112" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
+      <c r="B112" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
+      <c r="E112" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
+      <c r="H112" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="I112" s="10"/>
       <c r="J112" s="10"/>
       <c r="K112" s="10"/>
@@ -8113,18 +8157,22 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7" t="s">
-        <v>264</v>
+    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
@@ -8133,87 +8181,101 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" s="10" t="s">
+    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+    </row>
+    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+    </row>
+    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+    </row>
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B115" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B116" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B117" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G117" s="10">
-        <v>1</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8" t="s">
-        <v>270</v>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="10"/>
@@ -8225,19 +8287,19 @@
     <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="10"/>
@@ -8246,321 +8308,322 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="16" t="s">
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+    </row>
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+    </row>
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B124" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B125" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="10">
+        <v>1</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+    </row>
+    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="3" t="s">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4" t="s">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F123" s="4" t="s">
+      <c r="C132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4" t="s">
+      <c r="G132" s="4"/>
+      <c r="H132" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4" t="s">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F124" s="4" t="s">
+      <c r="C133" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G124" s="4"/>
-      <c r="H124" s="10" t="s">
+      <c r="G133" s="4"/>
+      <c r="H133" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4" t="s">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4" t="s">
+      <c r="C134" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4" t="s">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4" t="s">
+      <c r="C135" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4" t="s">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4" t="s">
+      <c r="D136" s="4"/>
+      <c r="E136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+    <row r="138" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="3" t="s">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-    </row>
-    <row r="130" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="4" t="s">
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+    </row>
+    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F130" s="4" t="s">
+      <c r="C139" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H139" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-    </row>
-    <row r="131" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-    </row>
-    <row r="132" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-    </row>
-    <row r="133" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-    </row>
-    <row r="134" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
-    </row>
-    <row r="135" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10"/>
-    </row>
-    <row r="137" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="21"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-    </row>
-    <row r="138" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="20"/>
-      <c r="B138" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F138" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
-      <c r="K138" s="8"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
-      <c r="N138" s="8"/>
-    </row>
-    <row r="139" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F139" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
@@ -8569,111 +8632,283 @@
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
     </row>
-    <row r="140" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="20"/>
-      <c r="B140" s="20" t="s">
+    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+    </row>
+    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+    </row>
+    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+    </row>
+    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+    </row>
+    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="10"/>
+      <c r="N144" s="10"/>
+    </row>
+    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+    </row>
+    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="20"/>
+      <c r="B147" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+    </row>
+    <row r="148" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F148" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="10"/>
+    </row>
+    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20" t="s">
+      <c r="C149" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="8"/>
-    </row>
-    <row r="141" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="20"/>
-      <c r="B141" s="20" t="s">
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+    </row>
+    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C141" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20" t="s">
+      <c r="C150" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
-    </row>
-    <row r="142" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="20"/>
-      <c r="B142" s="20" t="s">
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+    </row>
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="20"/>
+      <c r="B151" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C142" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20" t="s">
+      <c r="C151" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="20"/>
-      <c r="B143" s="20" t="s">
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20" t="s">
+      <c r="C152" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
-      <c r="M143" s="8"/>
-      <c r="N143" s="8"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20" t="s">
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="C153" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20" t="s">
+      <c r="D153" s="20"/>
+      <c r="E153" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20" t="s">
         <v>84</v>
       </c>
     </row>

--- a/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
+++ b/DataDocs/기획과 인게임 데이터 테이블 정의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\DataDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95CE4D0-334A-4E71-A8DC-AC366640C7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C425576D-958D-4767-815F-23C84134EECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
+    <workbookView xWindow="-84820" yWindow="-6780" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{036390FA-2C2E-43C9-9514-FAA424D3E6E7}"/>
   </bookViews>
   <sheets>
     <sheet name="기획 데이터정의" sheetId="13" r:id="rId1"/>
@@ -2294,17 +2294,17 @@
       <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="86.25" customWidth="1"/>
-    <col min="9" max="12" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="7" width="4.59765625" customWidth="1"/>
+    <col min="8" max="8" width="86.19921875" customWidth="1"/>
+    <col min="9" max="12" width="7.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>143</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>149</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -2403,9 +2403,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>83</v>
       </c>
@@ -2506,8 +2506,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>152</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>149</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>145</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>83</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>334</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>344</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>322</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>325</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>326</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>327</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>176</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>365</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>70</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
         <v>231</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
         <v>172</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>174</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>425</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="4" t="s">
         <v>272</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>330</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>83</v>
       </c>
@@ -2911,8 +2911,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>335</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="5" t="s">
         <v>345</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="4" t="s">
         <v>32</v>
@@ -2960,7 +2960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
         <v>344</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>346</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
@@ -3002,8 +3002,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="5" t="s">
         <v>276</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>39</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
@@ -3076,8 +3076,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>159</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="5" t="s">
         <v>279</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>32</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="20" t="s">
         <v>55</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
@@ -3178,8 +3178,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>162</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
         <v>53</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>56</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
         <v>83</v>
       </c>
@@ -3243,8 +3243,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>366</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>39</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>48</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>34</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>49</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>50</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>51</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>66</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>83</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="19" t="s">
         <v>395</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B88" s="4" t="s">
         <v>53</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>169</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>170</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="4" t="s">
         <v>389</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="20" t="s">
         <v>231</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="20" t="s">
         <v>92</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="20" t="s">
         <v>93</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>83</v>
       </c>
@@ -3553,8 +3553,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="97" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" s="4" t="s">
         <v>62</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="17" t="s">
         <v>360</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="4" t="s">
         <v>83</v>
       </c>
@@ -3630,8 +3630,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="103" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="5" t="s">
         <v>198</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" s="4" t="s">
         <v>55</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" s="4" t="s">
         <v>53</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B108" s="4" t="s">
         <v>65</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" s="4" t="s">
         <v>58</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B110" s="4" t="s">
         <v>61</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="17" t="s">
         <v>63</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B112" s="17" t="s">
         <v>64</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B113" s="4" t="s">
         <v>217</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="4" t="s">
         <v>83</v>
       </c>
@@ -3802,8 +3802,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="116" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>187</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B117" s="5" t="s">
         <v>198</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B118" s="4" t="s">
         <v>62</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B119" s="4" t="s">
         <v>53</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B120" s="4" t="s">
         <v>65</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B121" s="4" t="s">
         <v>58</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B122" s="4" t="s">
         <v>61</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B123" s="17" t="s">
         <v>63</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B124" s="17" t="s">
         <v>64</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B125" s="4" t="s">
         <v>217</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B126" s="4" t="s">
         <v>83</v>
       </c>
@@ -3960,8 +3960,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="128" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>186</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B129" s="5" t="s">
         <v>198</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B130" s="4" t="s">
         <v>62</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
         <v>53</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B132" s="4" t="s">
         <v>58</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B133" s="4" t="s">
         <v>61</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B134" s="4" t="s">
         <v>83</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4072,7 +4072,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>189</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B137" s="5" t="s">
         <v>198</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
         <v>62</v>
@@ -4121,7 +4121,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
         <v>53</v>
@@ -4139,7 +4139,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
         <v>51</v>
@@ -4157,7 +4157,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>83</v>
@@ -4175,8 +4175,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="143" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" s="5" t="s">
         <v>198</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B145" s="4" t="s">
         <v>62</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B146" s="4" t="s">
         <v>53</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B147" s="4" t="s">
         <v>71</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B148" s="4" t="s">
         <v>72</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B149" s="4" t="s">
         <v>65</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B150" s="4" t="s">
         <v>217</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B151" s="4" t="s">
         <v>83</v>
       </c>
@@ -4305,8 +4305,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>367</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>75</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>77</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
         <v>79</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
         <v>83</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>202</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B160" s="5" t="s">
         <v>198</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B161" s="20" t="s">
         <v>55</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B162" t="s">
         <v>75</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>203</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B165" s="4" t="s">
         <v>87</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B166" s="5" t="s">
         <v>198</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B167" t="s">
         <v>55</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B168" s="4" t="s">
         <v>219</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A169" s="22"/>
       <c r="B169" s="22" t="s">
         <v>397</v>
@@ -4535,7 +4535,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A170" s="22"/>
       <c r="B170" s="22" t="s">
         <v>402</v>
@@ -4553,7 +4553,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B171" t="s">
         <v>231</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B172" t="s">
         <v>204</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>88</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B174" t="s">
         <v>83</v>
       </c>
@@ -4609,8 +4609,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="176" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>208</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B177" s="4" t="s">
         <v>87</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B178" s="5" t="s">
         <v>106</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B179" s="4" t="s">
         <v>219</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B180" s="4" t="s">
         <v>230</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B181" s="4" t="s">
         <v>204</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B182" s="4" t="s">
         <v>108</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B183" s="4" t="s">
         <v>88</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B184" s="4" t="s">
         <v>205</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B185" s="4" t="s">
         <v>83</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>368</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B188" s="5" t="s">
         <v>381</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B189" t="s">
         <v>62</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B190" t="s">
         <v>230</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B191" t="s">
         <v>369</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B192" t="s">
         <v>83</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>371</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B196" t="s">
         <v>96</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B197" t="s">
         <v>62</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B198" s="4" t="s">
         <v>55</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B199" t="s">
         <v>393</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B200" t="s">
         <v>83</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>374</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B203" t="s">
         <v>97</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B204" t="s">
         <v>103</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B205" t="s">
         <v>102</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B206" t="s">
         <v>83</v>
       </c>
@@ -4994,8 +4994,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="208" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>372</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B209" s="4" t="s">
         <v>97</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B210" s="4" t="s">
         <v>96</v>
       </c>
@@ -5043,8 +5043,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="213" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>384</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B214" s="5" t="s">
         <v>106</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B215" s="5" t="s">
         <v>386</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B216" s="5" t="s">
         <v>65</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B217" s="5" t="s">
         <v>110</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B219" s="5" t="s">
         <v>83</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>375</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B222" s="4" t="s">
         <v>119</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B223" s="4" t="s">
         <v>120</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B224" s="4" t="s">
         <v>135</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B225" s="20" t="s">
         <v>435</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B226" s="4" t="s">
         <v>122</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B227" s="4" t="s">
         <v>125</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B228" s="4" t="s">
         <v>83</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5273,7 +5273,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B231" s="4" t="s">
         <v>231</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
         <v>385</v>
@@ -5324,7 +5324,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
         <v>83</v>
@@ -5342,7 +5342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="11" t="s">
         <v>383</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>281</v>
@@ -5376,7 +5376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>62</v>
@@ -5394,7 +5394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>55</v>
@@ -5412,7 +5412,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B239" s="20" t="s">
         <v>231</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B240" s="20" t="s">
         <v>192</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="10"/>
       <c r="B241" s="4" t="s">
         <v>309</v>
@@ -5458,7 +5458,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>83</v>
@@ -5476,7 +5476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="21" t="s">
         <v>396</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="22"/>
       <c r="B245" s="22" t="s">
         <v>397</v>
@@ -5510,7 +5510,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="22"/>
       <c r="B246" s="22" t="s">
         <v>418</v>
@@ -5530,7 +5530,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>83</v>
@@ -5548,7 +5548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -5558,7 +5558,7 @@
       <c r="G248" s="10"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A249" s="21" t="s">
         <v>428</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A250" s="22"/>
       <c r="B250" s="22" t="s">
         <v>429</v>
@@ -5592,7 +5592,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A251" s="22"/>
       <c r="B251" s="22" t="s">
         <v>430</v>
@@ -5612,7 +5612,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A252" s="10"/>
       <c r="B252" s="20" t="s">
         <v>431</v>
@@ -5630,7 +5630,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>83</v>
@@ -5648,7 +5648,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="21" t="s">
         <v>405</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B256" t="s">
         <v>404</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B257" t="s">
         <v>406</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>83</v>
@@ -5711,7 +5711,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260" s="21" t="s">
         <v>413</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261" s="20"/>
       <c r="B261" s="20" t="s">
         <v>407</v>
@@ -5745,7 +5745,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="20"/>
       <c r="B262" s="20" t="s">
         <v>414</v>
@@ -5763,7 +5763,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>83</v>
@@ -5792,22 +5792,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E90272-7466-4BD9-8CE6-2C5383032A25}">
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="10" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="6" width="7.125" style="10" customWidth="1"/>
+    <col min="4" max="6" width="7.09765625" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10"/>
-    <col min="8" max="8" width="47.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="47.69921875" style="10" customWidth="1"/>
     <col min="9" max="14" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>111</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>224</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>256</v>
@@ -5888,7 +5888,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>225</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>443</v>
@@ -5928,7 +5928,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>445</v>
@@ -5954,7 +5954,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>404</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>407</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>238</v>
@@ -6006,7 +6006,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>131</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>112</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>228</v>
@@ -6060,7 +6060,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>224</v>
@@ -6084,7 +6084,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>320</v>
@@ -6110,7 +6110,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>119</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
         <v>232</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>233</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B21" s="10" t="s">
         <v>136</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>258</v>
@@ -6204,7 +6204,7 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>282</v>
@@ -6228,7 +6228,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>284</v>
@@ -6252,7 +6252,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>83</v>
@@ -6276,7 +6276,7 @@
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>343</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>332</v>
@@ -6322,7 +6322,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>228</v>
@@ -6346,7 +6346,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>11</v>
@@ -6370,7 +6370,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
         <v>336</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="20" t="s">
         <v>421</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="20" t="s">
         <v>422</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>83</v>
@@ -6437,7 +6437,7 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -6453,7 +6453,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>352</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="5" t="s">
         <v>106</v>
@@ -6499,7 +6499,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>228</v>
@@ -6525,7 +6525,7 @@
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
     </row>
-    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>65</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
         <v>110</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>87</v>
@@ -6577,7 +6577,7 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
     </row>
-    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>219</v>
@@ -6601,7 +6601,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
     </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>83</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6628,7 +6628,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>377</v>
       </c>
@@ -6648,7 +6648,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
     </row>
-    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>286</v>
@@ -6674,7 +6674,7 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
     </row>
-    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>228</v>
@@ -6698,7 +6698,7 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
     </row>
-    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>288</v>
@@ -6722,7 +6722,7 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>289</v>
@@ -6746,7 +6746,7 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
     </row>
-    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>290</v>
@@ -6770,7 +6770,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>291</v>
@@ -6794,7 +6794,7 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
     </row>
-    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>292</v>
@@ -6818,7 +6818,7 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
     </row>
-    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>298</v>
@@ -6842,7 +6842,7 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>299</v>
@@ -6866,7 +6866,7 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>300</v>
@@ -6890,7 +6890,7 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
     </row>
-    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>301</v>
@@ -6914,7 +6914,7 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
     </row>
-    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>83</v>
@@ -6938,7 +6938,7 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6954,7 +6954,7 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
     </row>
-    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6970,7 +6970,7 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
     </row>
-    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6986,7 +6986,7 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
     </row>
-    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>271</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="5" t="s">
         <v>276</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>228</v>
@@ -7049,7 +7049,7 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>83</v>
@@ -7073,7 +7073,7 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
     </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -7089,7 +7089,7 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="15" t="s">
         <v>354</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
     </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
         <v>275</v>
@@ -7135,7 +7135,7 @@
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>228</v>
@@ -7159,7 +7159,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>32</v>
@@ -7183,7 +7183,7 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>39</v>
@@ -7207,7 +7207,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>83</v>
@@ -7231,7 +7231,7 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -7247,7 +7247,7 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="15" t="s">
         <v>353</v>
       </c>
@@ -7267,7 +7267,7 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>245</v>
@@ -7293,7 +7293,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>228</v>
@@ -7317,7 +7317,7 @@
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>249</v>
@@ -7341,7 +7341,7 @@
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
     </row>
-    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>231</v>
@@ -7365,7 +7365,7 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>242</v>
@@ -7389,7 +7389,7 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>243</v>
@@ -7413,7 +7413,7 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>83</v>
@@ -7437,7 +7437,7 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -7453,7 +7453,7 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="15" t="s">
         <v>355</v>
       </c>
@@ -7473,7 +7473,7 @@
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>247</v>
@@ -7499,7 +7499,7 @@
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
     </row>
-    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>228</v>
@@ -7523,7 +7523,7 @@
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
     </row>
-    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>62</v>
@@ -7547,7 +7547,7 @@
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>55</v>
@@ -7571,7 +7571,7 @@
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
     </row>
-    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>231</v>
@@ -7595,7 +7595,7 @@
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
     </row>
-    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>243</v>
@@ -7619,7 +7619,7 @@
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
     </row>
-    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>83</v>
@@ -7643,7 +7643,7 @@
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
     </row>
-    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -7659,7 +7659,7 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="15" t="s">
         <v>356</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
     </row>
-    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="s">
         <v>253</v>
@@ -7705,7 +7705,7 @@
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
     </row>
-    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="8" t="s">
         <v>245</v>
@@ -7729,7 +7729,7 @@
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
     </row>
-    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>247</v>
@@ -7753,7 +7753,7 @@
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
     </row>
-    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>231</v>
@@ -7777,7 +7777,7 @@
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
     </row>
-    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>243</v>
@@ -7801,7 +7801,7 @@
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
     </row>
-    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>83</v>
@@ -7825,7 +7825,7 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
     </row>
-    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -7841,7 +7841,7 @@
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
     </row>
-    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="7" t="s">
         <v>378</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
     </row>
-    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>160</v>
@@ -7887,7 +7887,7 @@
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
     </row>
-    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>228</v>
@@ -7911,7 +7911,7 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>62</v>
@@ -7935,7 +7935,7 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>55</v>
@@ -7959,7 +7959,7 @@
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
     </row>
-    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>87</v>
@@ -7983,7 +7983,7 @@
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
     </row>
-    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>219</v>
@@ -8007,7 +8007,7 @@
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
     </row>
-    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>139</v>
@@ -8033,7 +8033,7 @@
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
     </row>
-    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" s="5" t="s">
         <v>341</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>83</v>
@@ -8071,7 +8071,7 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
     </row>
-    <row r="109" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -8087,7 +8087,7 @@
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
     </row>
-    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="7" t="s">
         <v>439</v>
       </c>
@@ -8107,7 +8107,7 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
     </row>
-    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>440</v>
@@ -8133,7 +8133,7 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
     </row>
-    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>228</v>
@@ -8157,7 +8157,7 @@
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
     </row>
-    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>32</v>
@@ -8181,7 +8181,7 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
     </row>
-    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="22" t="s">
         <v>395</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>83</v>
@@ -8222,7 +8222,7 @@
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -8238,7 +8238,7 @@
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
     </row>
-    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="15" t="s">
         <v>358</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
     </row>
-    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>160</v>
@@ -8284,7 +8284,7 @@
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
     </row>
-    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>87</v>
@@ -8308,7 +8308,7 @@
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
     </row>
-    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>83</v>
@@ -8332,7 +8332,7 @@
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
     </row>
-    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -8348,7 +8348,7 @@
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
     </row>
-    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="7" t="s">
         <v>379</v>
       </c>
@@ -8368,7 +8368,7 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A123" s="8"/>
       <c r="B123" s="8" t="s">
         <v>265</v>
@@ -8388,7 +8388,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B124" s="10" t="s">
         <v>62</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B125" s="10" t="s">
         <v>55</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B126" s="10" t="s">
         <v>139</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A127" s="8"/>
       <c r="B127" s="8" t="s">
         <v>269</v>
@@ -8457,7 +8457,7 @@
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
     </row>
-    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>83</v>
@@ -8481,7 +8481,7 @@
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" s="16" t="s">
         <v>357</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>91</v>
@@ -8515,7 +8515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
         <v>228</v>
@@ -8535,7 +8535,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
         <v>230</v>
@@ -8553,7 +8553,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
         <v>213</v>
@@ -8571,7 +8571,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
         <v>83</v>
@@ -8589,7 +8589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>311</v>
       </c>
@@ -8609,7 +8609,7 @@
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
     </row>
-    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B139" s="4" t="s">
         <v>314</v>
       </c>
@@ -8632,7 +8632,7 @@
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
     </row>
-    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B140" s="4" t="s">
         <v>228</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
     </row>
-    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B141" s="4" t="s">
         <v>231</v>
       </c>
@@ -8675,7 +8675,7 @@
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
     </row>
-    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B142" s="4" t="s">
         <v>316</v>
       </c>
@@ -8695,7 +8695,7 @@
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
     </row>
-    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B143" s="4" t="s">
         <v>318</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
     </row>
-    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" s="4" t="s">
         <v>83</v>
       </c>
@@ -8735,7 +8735,7 @@
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
     </row>
-    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A146" s="21" t="s">
         <v>370</v>
       </c>
@@ -8755,7 +8755,7 @@
       <c r="M146" s="8"/>
       <c r="N146" s="8"/>
     </row>
-    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>91</v>
@@ -8781,7 +8781,7 @@
       <c r="M147" s="8"/>
       <c r="N147" s="8"/>
     </row>
-    <row r="148" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B148" s="20" t="s">
         <v>228</v>
       </c>
@@ -8804,7 +8804,7 @@
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
     </row>
-    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>437</v>
@@ -8828,7 +8828,7 @@
       <c r="M149" s="8"/>
       <c r="N149" s="8"/>
     </row>
-    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>230</v>
@@ -8852,7 +8852,7 @@
       <c r="M150" s="8"/>
       <c r="N150" s="8"/>
     </row>
-    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A151" s="20"/>
       <c r="B151" s="20" t="s">
         <v>213</v>
@@ -8870,7 +8870,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>145</v>
@@ -8894,7 +8894,7 @@
       <c r="M152" s="8"/>
       <c r="N152" s="8"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A153" s="20"/>
       <c r="B153" s="20" t="s">
         <v>83</v>
